--- a/data/pca/factorExposure/factorExposure_2011-07-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02249550281195734</v>
+        <v>-0.01926006827703349</v>
       </c>
       <c r="C2">
-        <v>0.001576453967580107</v>
+        <v>-0.0007287355752521215</v>
       </c>
       <c r="D2">
-        <v>0.04724822283205064</v>
+        <v>0.003020148506628117</v>
       </c>
       <c r="E2">
-        <v>0.02686163740789953</v>
+        <v>-0.03703397708513272</v>
       </c>
       <c r="F2">
-        <v>-0.046400130339143</v>
+        <v>-0.003011895823270234</v>
       </c>
       <c r="G2">
-        <v>0.00699550559507826</v>
+        <v>0.02540134087798407</v>
       </c>
       <c r="H2">
-        <v>0.02163880298972083</v>
+        <v>0.01912580560247251</v>
       </c>
       <c r="I2">
-        <v>0.01884532393635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.04105009554638591</v>
+      </c>
+      <c r="J2">
+        <v>-0.03523607935120121</v>
+      </c>
+      <c r="K2">
+        <v>0.03719387792882339</v>
+      </c>
+      <c r="L2">
+        <v>0.04536702501241345</v>
+      </c>
+      <c r="M2">
+        <v>-0.03679263735881201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07102298755677203</v>
+        <v>-0.1046317075101101</v>
       </c>
       <c r="C4">
-        <v>-0.06012729255437362</v>
+        <v>0.07852490891667716</v>
       </c>
       <c r="D4">
-        <v>0.03894926138599109</v>
+        <v>0.02411432613812955</v>
       </c>
       <c r="E4">
-        <v>0.04316087823327574</v>
+        <v>-0.04539921110735248</v>
       </c>
       <c r="F4">
-        <v>0.006820556380734267</v>
+        <v>-0.1112966727860612</v>
       </c>
       <c r="G4">
-        <v>0.02981111467689997</v>
+        <v>-0.01255228168602805</v>
       </c>
       <c r="H4">
-        <v>-6.14767839712851e-05</v>
+        <v>-0.0622248684257455</v>
       </c>
       <c r="I4">
-        <v>0.006094533964408608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.03933075295598458</v>
+      </c>
+      <c r="J4">
+        <v>-0.04841768560226063</v>
+      </c>
+      <c r="K4">
+        <v>-0.06183380318236834</v>
+      </c>
+      <c r="L4">
+        <v>-0.0594019015636583</v>
+      </c>
+      <c r="M4">
+        <v>-0.02675573442733385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1270899164376689</v>
+        <v>-0.1293942373832111</v>
       </c>
       <c r="C6">
-        <v>-0.02767755492582369</v>
+        <v>0.05382040963796043</v>
       </c>
       <c r="D6">
-        <v>0.06274528199243853</v>
+        <v>0.004497065295439308</v>
       </c>
       <c r="E6">
-        <v>0.1097093963346084</v>
+        <v>-0.02952933316110882</v>
       </c>
       <c r="F6">
-        <v>0.1017569116923589</v>
+        <v>-0.04680859428266172</v>
       </c>
       <c r="G6">
-        <v>-0.02047218620127252</v>
+        <v>-0.1499838709729158</v>
       </c>
       <c r="H6">
-        <v>-0.2134331705319353</v>
+        <v>0.06058219983587066</v>
       </c>
       <c r="I6">
-        <v>-0.2150904460007648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.09770072814289438</v>
+      </c>
+      <c r="J6">
+        <v>-0.1087705404576061</v>
+      </c>
+      <c r="K6">
+        <v>-0.3918429246616915</v>
+      </c>
+      <c r="L6">
+        <v>0.1770009135210054</v>
+      </c>
+      <c r="M6">
+        <v>0.01100691891114831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06687560543807171</v>
+        <v>-0.07036676926907733</v>
       </c>
       <c r="C7">
-        <v>-0.05266236912320803</v>
+        <v>0.07367227777369595</v>
       </c>
       <c r="D7">
-        <v>0.05438637997884273</v>
+        <v>0.006499179621845716</v>
       </c>
       <c r="E7">
-        <v>0.03963563224443548</v>
+        <v>-0.04603317327064214</v>
       </c>
       <c r="F7">
-        <v>0.0382114178566171</v>
+        <v>-0.02123583139436938</v>
       </c>
       <c r="G7">
-        <v>0.004792638259282497</v>
+        <v>0.003052595603309489</v>
       </c>
       <c r="H7">
-        <v>0.003278728640982453</v>
+        <v>-0.05107677025952948</v>
       </c>
       <c r="I7">
-        <v>0.05222688494914925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.03823300398962011</v>
+      </c>
+      <c r="J7">
+        <v>0.00880685574394933</v>
+      </c>
+      <c r="K7">
+        <v>0.02073394909318788</v>
+      </c>
+      <c r="L7">
+        <v>-0.09400177061855779</v>
+      </c>
+      <c r="M7">
+        <v>-0.0006259925409751366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02612878727380777</v>
+        <v>-0.03603132661056226</v>
       </c>
       <c r="C8">
-        <v>-0.01510974767801134</v>
+        <v>0.01019575544969519</v>
       </c>
       <c r="D8">
-        <v>0.03464458855552822</v>
+        <v>0.01934313013253885</v>
       </c>
       <c r="E8">
-        <v>0.0644656813782534</v>
+        <v>-0.04894337969825727</v>
       </c>
       <c r="F8">
-        <v>-0.02985372419761978</v>
+        <v>-0.1028840981310804</v>
       </c>
       <c r="G8">
-        <v>-0.05119327991561147</v>
+        <v>-0.01090470419188073</v>
       </c>
       <c r="H8">
-        <v>0.01302812310599903</v>
+        <v>-0.03607303293700384</v>
       </c>
       <c r="I8">
-        <v>0.03643004483517848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.01575479460345252</v>
+      </c>
+      <c r="J8">
+        <v>-0.06544196142335283</v>
+      </c>
+      <c r="K8">
+        <v>-0.03298195966330886</v>
+      </c>
+      <c r="L8">
+        <v>-0.04634324737750035</v>
+      </c>
+      <c r="M8">
+        <v>-0.01188451714378143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07449389565815961</v>
+        <v>-0.08371214605849464</v>
       </c>
       <c r="C9">
-        <v>-0.07719296004869586</v>
+        <v>0.06822417652452412</v>
       </c>
       <c r="D9">
-        <v>0.04412379388247967</v>
+        <v>0.004797557684532526</v>
       </c>
       <c r="E9">
-        <v>0.03305914941963541</v>
+        <v>-0.02957689639718576</v>
       </c>
       <c r="F9">
-        <v>-0.009538402875724638</v>
+        <v>-0.1050380203538089</v>
       </c>
       <c r="G9">
-        <v>0.02095057007169341</v>
+        <v>-0.00632504297500767</v>
       </c>
       <c r="H9">
-        <v>0.007615935397784226</v>
+        <v>-0.05862755611178039</v>
       </c>
       <c r="I9">
-        <v>0.01095421769154041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.04464453408841965</v>
+      </c>
+      <c r="J9">
+        <v>-0.02128233939075324</v>
+      </c>
+      <c r="K9">
+        <v>-0.02922472968423594</v>
+      </c>
+      <c r="L9">
+        <v>-0.02808648361290956</v>
+      </c>
+      <c r="M9">
+        <v>-0.001960843455672041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06238708190926388</v>
+        <v>-0.1074854747163962</v>
       </c>
       <c r="C10">
-        <v>0.1416276308234279</v>
+        <v>-0.1714630006178677</v>
       </c>
       <c r="D10">
-        <v>0.05525845363948466</v>
+        <v>0.01062281568117861</v>
       </c>
       <c r="E10">
-        <v>0.0450410267645306</v>
+        <v>-0.05161782568060405</v>
       </c>
       <c r="F10">
-        <v>0.04467418459167526</v>
+        <v>0.01588555085551263</v>
       </c>
       <c r="G10">
-        <v>-0.02046607399185345</v>
+        <v>-0.01226977030583453</v>
       </c>
       <c r="H10">
-        <v>-0.0491493371258323</v>
+        <v>-0.001982924950455006</v>
       </c>
       <c r="I10">
-        <v>0.003930471191588453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.02234916009783108</v>
+      </c>
+      <c r="J10">
+        <v>0.05390314528379633</v>
+      </c>
+      <c r="K10">
+        <v>0.04429628156749607</v>
+      </c>
+      <c r="L10">
+        <v>0.003582088569918374</v>
+      </c>
+      <c r="M10">
+        <v>0.05921912898724562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06596701933125138</v>
+        <v>-0.06631781006156512</v>
       </c>
       <c r="C11">
-        <v>-0.08913757536533791</v>
+        <v>0.06993246029649418</v>
       </c>
       <c r="D11">
-        <v>0.03735774708993104</v>
+        <v>-0.02976486418908979</v>
       </c>
       <c r="E11">
-        <v>0.004652671533431194</v>
+        <v>-0.01173433503059923</v>
       </c>
       <c r="F11">
-        <v>-0.05404333537198924</v>
+        <v>-0.106219518132503</v>
       </c>
       <c r="G11">
-        <v>-0.005951365411925154</v>
+        <v>0.01346589702846292</v>
       </c>
       <c r="H11">
-        <v>0.04609886825940274</v>
+        <v>-0.03408328929406244</v>
       </c>
       <c r="I11">
-        <v>0.04378027926914292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.03671309773560504</v>
+      </c>
+      <c r="J11">
+        <v>0.003905619608123594</v>
+      </c>
+      <c r="K11">
+        <v>0.09533586175156099</v>
+      </c>
+      <c r="L11">
+        <v>0.01011086789965243</v>
+      </c>
+      <c r="M11">
+        <v>0.07518767451139773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06014897708204169</v>
+        <v>-0.07081419283569364</v>
       </c>
       <c r="C12">
-        <v>-0.05582495385331988</v>
+        <v>0.06271750851753852</v>
       </c>
       <c r="D12">
-        <v>0.01591300368008372</v>
+        <v>-0.02856699518680111</v>
       </c>
       <c r="E12">
-        <v>0.01930423348500549</v>
+        <v>-0.001878803292060488</v>
       </c>
       <c r="F12">
-        <v>-0.0007027930866280079</v>
+        <v>-0.1207401522274581</v>
       </c>
       <c r="G12">
-        <v>0.006718382641028638</v>
+        <v>0.01630772958699612</v>
       </c>
       <c r="H12">
-        <v>0.03449949744249785</v>
+        <v>-0.0257315167866903</v>
       </c>
       <c r="I12">
-        <v>0.06637851389291471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.05813988317528947</v>
+      </c>
+      <c r="J12">
+        <v>-0.03880675673487402</v>
+      </c>
+      <c r="K12">
+        <v>0.07589742974904642</v>
+      </c>
+      <c r="L12">
+        <v>-0.01459571362218464</v>
+      </c>
+      <c r="M12">
+        <v>0.1101954114121178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05418076069250864</v>
+        <v>-0.04677566574228294</v>
       </c>
       <c r="C13">
-        <v>-0.01851229873395305</v>
+        <v>0.03356653593463582</v>
       </c>
       <c r="D13">
-        <v>0.01084878448924589</v>
+        <v>0.02080365318918467</v>
       </c>
       <c r="E13">
-        <v>0.0145645101901449</v>
+        <v>-0.01124590106865201</v>
       </c>
       <c r="F13">
-        <v>-0.03579876468072654</v>
+        <v>-0.04275960761423621</v>
       </c>
       <c r="G13">
-        <v>0.04042248735173753</v>
+        <v>0.02176441347604817</v>
       </c>
       <c r="H13">
-        <v>0.0313612690023023</v>
+        <v>-0.03160661814209498</v>
       </c>
       <c r="I13">
-        <v>0.0133526869860316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.01343439988954092</v>
+      </c>
+      <c r="J13">
+        <v>-0.01326613027122524</v>
+      </c>
+      <c r="K13">
+        <v>-0.02382782780836953</v>
+      </c>
+      <c r="L13">
+        <v>-0.08286764614180034</v>
+      </c>
+      <c r="M13">
+        <v>-0.01098153398445982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04174928147550037</v>
+        <v>-0.04631107216632221</v>
       </c>
       <c r="C14">
-        <v>-0.02310894297450025</v>
+        <v>0.02705353484414938</v>
       </c>
       <c r="D14">
-        <v>0.02382983431559217</v>
+        <v>-0.007120974891041099</v>
       </c>
       <c r="E14">
-        <v>-0.003924648826002586</v>
+        <v>-0.01805576740282818</v>
       </c>
       <c r="F14">
-        <v>0.02064310103031933</v>
+        <v>-0.04640107451167721</v>
       </c>
       <c r="G14">
-        <v>0.02452962201148224</v>
+        <v>0.02096096098505386</v>
       </c>
       <c r="H14">
-        <v>-0.0896042186887776</v>
+        <v>-0.06980989330996988</v>
       </c>
       <c r="I14">
-        <v>-0.007547735542621209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.02257020857322933</v>
+      </c>
+      <c r="J14">
+        <v>0.01135960367543934</v>
+      </c>
+      <c r="K14">
+        <v>-0.05632352942858194</v>
+      </c>
+      <c r="L14">
+        <v>-0.04957968605296142</v>
+      </c>
+      <c r="M14">
+        <v>-0.04063603510698403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03705234247254256</v>
+        <v>-0.0309633432901569</v>
       </c>
       <c r="C15">
-        <v>0.005975310136913633</v>
+        <v>0.008795530351277102</v>
       </c>
       <c r="D15">
-        <v>-0.005508134119509219</v>
+        <v>0.0606730169070484</v>
       </c>
       <c r="E15">
-        <v>0.02199158981128476</v>
+        <v>-0.006574564767368792</v>
       </c>
       <c r="F15">
-        <v>0.008981040203610518</v>
+        <v>-0.002779395517507091</v>
       </c>
       <c r="G15">
-        <v>0.02046507941412672</v>
+        <v>-0.03620820669849809</v>
       </c>
       <c r="H15">
-        <v>-9.306500038131492e-05</v>
+        <v>-0.03899209437124995</v>
       </c>
       <c r="I15">
-        <v>-0.01795207950428039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.02044883327432693</v>
+      </c>
+      <c r="J15">
+        <v>0.002546982850334059</v>
+      </c>
+      <c r="K15">
+        <v>-0.05890987631695425</v>
+      </c>
+      <c r="L15">
+        <v>-0.04108128403301571</v>
+      </c>
+      <c r="M15">
+        <v>0.0007265277947637829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.05098253239001792</v>
+        <v>-0.07042027692931113</v>
       </c>
       <c r="C16">
-        <v>-0.08888766912306251</v>
+        <v>0.07888201058068517</v>
       </c>
       <c r="D16">
-        <v>0.02902795777560908</v>
+        <v>-0.01933359626938077</v>
       </c>
       <c r="E16">
-        <v>0.0257482684196932</v>
+        <v>-0.01116275606265016</v>
       </c>
       <c r="F16">
-        <v>-0.03228783849287527</v>
+        <v>-0.1112125800503863</v>
       </c>
       <c r="G16">
-        <v>0.02274565578112591</v>
+        <v>0.02470957940680878</v>
       </c>
       <c r="H16">
-        <v>0.02476361650606794</v>
+        <v>-0.03982637438654192</v>
       </c>
       <c r="I16">
-        <v>0.091122106888522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.06055548646472285</v>
+      </c>
+      <c r="J16">
+        <v>-0.02148899259877108</v>
+      </c>
+      <c r="K16">
+        <v>0.08386333752359523</v>
+      </c>
+      <c r="L16">
+        <v>-0.01552200784898</v>
+      </c>
+      <c r="M16">
+        <v>0.05981682008392125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03933376097413129</v>
+        <v>-0.04266629767950253</v>
       </c>
       <c r="C20">
-        <v>-0.04352983902978429</v>
+        <v>0.03073698514331843</v>
       </c>
       <c r="D20">
-        <v>0.0175252451845155</v>
+        <v>0.02615447542584624</v>
       </c>
       <c r="E20">
-        <v>0.011344128748975</v>
+        <v>-0.02039524419727107</v>
       </c>
       <c r="F20">
-        <v>-0.01508223613188258</v>
+        <v>-0.054284773373352</v>
       </c>
       <c r="G20">
-        <v>0.03885885213574559</v>
+        <v>0.0276556466067936</v>
       </c>
       <c r="H20">
-        <v>0.003145451878357532</v>
+        <v>-0.04538943117769918</v>
       </c>
       <c r="I20">
-        <v>0.03434100918829118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.05540695785669558</v>
+      </c>
+      <c r="J20">
+        <v>-0.01963604401046063</v>
+      </c>
+      <c r="K20">
+        <v>-0.02341679276469546</v>
+      </c>
+      <c r="L20">
+        <v>-0.05792961290825951</v>
+      </c>
+      <c r="M20">
+        <v>0.02389000942514715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.008634875583962632</v>
+        <v>-0.0235787596735317</v>
       </c>
       <c r="C21">
-        <v>-0.01744271004681863</v>
+        <v>0.0194404636839844</v>
       </c>
       <c r="D21">
-        <v>-0.003389501087512739</v>
+        <v>0.0163654925501174</v>
       </c>
       <c r="E21">
-        <v>0.0784908924908481</v>
+        <v>-0.01663095562246288</v>
       </c>
       <c r="F21">
-        <v>0.07419948503870337</v>
+        <v>-0.04624051438128515</v>
       </c>
       <c r="G21">
-        <v>-0.05789253863654079</v>
+        <v>-0.0975421577255929</v>
       </c>
       <c r="H21">
-        <v>-0.0002869447124443458</v>
+        <v>-0.003420971965093375</v>
       </c>
       <c r="I21">
-        <v>-0.06377336009287865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.05647508238721198</v>
+      </c>
+      <c r="J21">
+        <v>0.02436559849339391</v>
+      </c>
+      <c r="K21">
+        <v>-0.06223159077594328</v>
+      </c>
+      <c r="L21">
+        <v>-0.06497173676481167</v>
+      </c>
+      <c r="M21">
+        <v>0.003707472029366304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01630174208859252</v>
+        <v>-0.0413534702595901</v>
       </c>
       <c r="C22">
-        <v>-0.06597451991479589</v>
+        <v>0.03379516473994023</v>
       </c>
       <c r="D22">
-        <v>-0.1465042492867229</v>
+        <v>0.6522136796625116</v>
       </c>
       <c r="E22">
-        <v>0.4539266095021326</v>
+        <v>-0.06603692057801749</v>
       </c>
       <c r="F22">
-        <v>0.1229876437910252</v>
+        <v>0.08718670759049423</v>
       </c>
       <c r="G22">
-        <v>0.2285960003345592</v>
+        <v>0.07506133468031234</v>
       </c>
       <c r="H22">
-        <v>0.2747536488602104</v>
+        <v>0.07261396514005158</v>
       </c>
       <c r="I22">
-        <v>-0.06468392759294514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.08372685824595449</v>
+      </c>
+      <c r="J22">
+        <v>0.08826023945687514</v>
+      </c>
+      <c r="K22">
+        <v>0.04046206837929778</v>
+      </c>
+      <c r="L22">
+        <v>0.02430262998146751</v>
+      </c>
+      <c r="M22">
+        <v>-0.03110095301490784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01719176700345091</v>
+        <v>-0.04203863581561414</v>
       </c>
       <c r="C23">
-        <v>-0.06484912063607837</v>
+        <v>0.03415498134696791</v>
       </c>
       <c r="D23">
-        <v>-0.1460858412305607</v>
+        <v>0.6537435392297928</v>
       </c>
       <c r="E23">
-        <v>0.4552173849601139</v>
+        <v>-0.06689134783246665</v>
       </c>
       <c r="F23">
-        <v>0.1216606169164657</v>
+        <v>0.08245468462563187</v>
       </c>
       <c r="G23">
-        <v>0.2245639637368409</v>
+        <v>0.07500690771867233</v>
       </c>
       <c r="H23">
-        <v>0.2718884562096907</v>
+        <v>0.07395344213569929</v>
       </c>
       <c r="I23">
-        <v>-0.06590207767614839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.08233716957503483</v>
+      </c>
+      <c r="J23">
+        <v>0.0868228910433665</v>
+      </c>
+      <c r="K23">
+        <v>0.03721158078966805</v>
+      </c>
+      <c r="L23">
+        <v>0.0286349497251905</v>
+      </c>
+      <c r="M23">
+        <v>-0.03306706542326317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06965595793151365</v>
+        <v>-0.07635188952210945</v>
       </c>
       <c r="C24">
-        <v>-0.08160954717718773</v>
+        <v>0.07591640305898906</v>
       </c>
       <c r="D24">
-        <v>0.04430873714507046</v>
+        <v>-0.01716807664507809</v>
       </c>
       <c r="E24">
-        <v>0.03781774449380351</v>
+        <v>-0.01695053333556258</v>
       </c>
       <c r="F24">
-        <v>-0.03297417239030078</v>
+        <v>-0.11244173900983</v>
       </c>
       <c r="G24">
-        <v>-0.003667432942048156</v>
+        <v>0.01332878928615734</v>
       </c>
       <c r="H24">
-        <v>0.02245697412527742</v>
+        <v>-0.02604892954996665</v>
       </c>
       <c r="I24">
-        <v>0.0397107060119481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.05359498429681519</v>
+      </c>
+      <c r="J24">
+        <v>-0.01160765829284683</v>
+      </c>
+      <c r="K24">
+        <v>0.07252404157750832</v>
+      </c>
+      <c r="L24">
+        <v>0.01790978453875666</v>
+      </c>
+      <c r="M24">
+        <v>0.07836523766641797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06362709514639966</v>
+        <v>-0.07246622656810811</v>
       </c>
       <c r="C25">
-        <v>-0.04326403150094534</v>
+        <v>0.04920904401602492</v>
       </c>
       <c r="D25">
-        <v>0.03697121920002076</v>
+        <v>-0.03030754188240349</v>
       </c>
       <c r="E25">
-        <v>0.04777784081003846</v>
+        <v>-0.01368901727736496</v>
       </c>
       <c r="F25">
-        <v>-0.04301426218272165</v>
+        <v>-0.1189298096470936</v>
       </c>
       <c r="G25">
-        <v>0.01332047868565493</v>
+        <v>0.02952496897838999</v>
       </c>
       <c r="H25">
-        <v>-0.007635864697661999</v>
+        <v>-0.04378495475073307</v>
       </c>
       <c r="I25">
-        <v>0.04128437449628849</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.05978892076591714</v>
+      </c>
+      <c r="J25">
+        <v>-0.02301684391976826</v>
+      </c>
+      <c r="K25">
+        <v>0.08114961697570738</v>
+      </c>
+      <c r="L25">
+        <v>0.03857783041274412</v>
+      </c>
+      <c r="M25">
+        <v>0.07283776412679444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03832214403435145</v>
+        <v>-0.04241321111070364</v>
       </c>
       <c r="C26">
-        <v>-0.03118083529824573</v>
+        <v>0.02360335832222368</v>
       </c>
       <c r="D26">
-        <v>0.03877353280161269</v>
+        <v>0.01297132378982981</v>
       </c>
       <c r="E26">
-        <v>6.537273150225361e-05</v>
+        <v>-0.001934100545099686</v>
       </c>
       <c r="F26">
-        <v>0.009403986164869226</v>
+        <v>-0.03591870160466287</v>
       </c>
       <c r="G26">
-        <v>0.02765041935300968</v>
+        <v>0.00455608261990083</v>
       </c>
       <c r="H26">
-        <v>0.01464440633672665</v>
+        <v>-0.03891431443226118</v>
       </c>
       <c r="I26">
-        <v>0.01311546848070655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.02026258773259958</v>
+      </c>
+      <c r="J26">
+        <v>0.05803365536954162</v>
+      </c>
+      <c r="K26">
+        <v>-0.07248552083915913</v>
+      </c>
+      <c r="L26">
+        <v>-0.1351188355927855</v>
+      </c>
+      <c r="M26">
+        <v>-0.03749629102236166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1204744574942068</v>
+        <v>-0.1438770517179498</v>
       </c>
       <c r="C28">
-        <v>0.2986437500251617</v>
+        <v>-0.2883200395812789</v>
       </c>
       <c r="D28">
-        <v>0.02710778820587165</v>
+        <v>-0.00558984515015562</v>
       </c>
       <c r="E28">
-        <v>0.005730647473618476</v>
+        <v>-0.0262657141628848</v>
       </c>
       <c r="F28">
-        <v>0.05732304191119041</v>
+        <v>0.003468403912651884</v>
       </c>
       <c r="G28">
-        <v>-0.01700082185767801</v>
+        <v>-0.01469213107179277</v>
       </c>
       <c r="H28">
-        <v>0.01377515438018411</v>
+        <v>0.01511498202352809</v>
       </c>
       <c r="I28">
-        <v>0.08472044050784948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.01161873252976371</v>
+      </c>
+      <c r="J28">
+        <v>-0.01469692438126768</v>
+      </c>
+      <c r="K28">
+        <v>-0.006026247771834479</v>
+      </c>
+      <c r="L28">
+        <v>-0.04293816171840208</v>
+      </c>
+      <c r="M28">
+        <v>-0.02696411178448129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04854646210279624</v>
+        <v>-0.04489827842980689</v>
       </c>
       <c r="C29">
-        <v>-0.01520645911915306</v>
+        <v>0.02305633789974828</v>
       </c>
       <c r="D29">
-        <v>0.01400731517770494</v>
+        <v>0.001651348193089964</v>
       </c>
       <c r="E29">
-        <v>0.02258643623414425</v>
+        <v>-0.02111560159593813</v>
       </c>
       <c r="F29">
-        <v>0.0006522228756973445</v>
+        <v>-0.04720622629802364</v>
       </c>
       <c r="G29">
-        <v>0.02214374027621134</v>
+        <v>0.03575762841759567</v>
       </c>
       <c r="H29">
-        <v>-0.0376762433287058</v>
+        <v>-0.05424831496089117</v>
       </c>
       <c r="I29">
-        <v>0.007646335823825996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.02036217759666084</v>
+      </c>
+      <c r="J29">
+        <v>0.01892298963505111</v>
+      </c>
+      <c r="K29">
+        <v>-0.04367918565056026</v>
+      </c>
+      <c r="L29">
+        <v>-0.03487014534616589</v>
+      </c>
+      <c r="M29">
+        <v>-0.02889111246298902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1195087330316135</v>
+        <v>-0.09774454182858076</v>
       </c>
       <c r="C30">
-        <v>-0.0780615016726138</v>
+        <v>0.06504078565245144</v>
       </c>
       <c r="D30">
-        <v>0.06921788809515433</v>
+        <v>0.003143340011887564</v>
       </c>
       <c r="E30">
-        <v>0.06126778203504198</v>
+        <v>-0.03043979276529555</v>
       </c>
       <c r="F30">
-        <v>0.02472588129418033</v>
+        <v>-0.1738408253633581</v>
       </c>
       <c r="G30">
-        <v>0.009747036323522465</v>
+        <v>0.06148919970388434</v>
       </c>
       <c r="H30">
-        <v>0.008065206017564028</v>
+        <v>0.01276710992069811</v>
       </c>
       <c r="I30">
-        <v>0.09133031807865177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.2875744436325808</v>
+      </c>
+      <c r="J30">
+        <v>0.006587022874462122</v>
+      </c>
+      <c r="K30">
+        <v>-0.03607631307214168</v>
+      </c>
+      <c r="L30">
+        <v>-0.1905465669346088</v>
+      </c>
+      <c r="M30">
+        <v>-0.09793780031835045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04386352099905921</v>
+        <v>-0.03495785276490458</v>
       </c>
       <c r="C31">
-        <v>-0.02191850089483421</v>
+        <v>0.04428310439077128</v>
       </c>
       <c r="D31">
-        <v>0.002352066892833311</v>
+        <v>0.005423627699717025</v>
       </c>
       <c r="E31">
-        <v>-0.01344035578566178</v>
+        <v>0.004208916762423421</v>
       </c>
       <c r="F31">
-        <v>0.009841386426264023</v>
+        <v>-0.01527304572653913</v>
       </c>
       <c r="G31">
-        <v>0.04603655448399198</v>
+        <v>0.02810386150715432</v>
       </c>
       <c r="H31">
-        <v>0.01090336456589872</v>
+        <v>-0.04720757983018034</v>
       </c>
       <c r="I31">
-        <v>-0.0142512474312358</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.01206229586836873</v>
+      </c>
+      <c r="J31">
+        <v>-0.02586650754990748</v>
+      </c>
+      <c r="K31">
+        <v>-0.01167783558705867</v>
+      </c>
+      <c r="L31">
+        <v>-0.01912969571405372</v>
+      </c>
+      <c r="M31">
+        <v>0.006205938648879727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02325202299593624</v>
+        <v>-0.0457354124629759</v>
       </c>
       <c r="C32">
-        <v>-0.003124196415660727</v>
+        <v>-0.001839820070754117</v>
       </c>
       <c r="D32">
-        <v>-0.04421394305541635</v>
+        <v>-0.001553102208678153</v>
       </c>
       <c r="E32">
-        <v>0.07956527466970609</v>
+        <v>0.006017315243244116</v>
       </c>
       <c r="F32">
-        <v>-0.03699484504612633</v>
+        <v>-0.08191750157731488</v>
       </c>
       <c r="G32">
-        <v>0.02050722821313745</v>
+        <v>-0.04178767942635577</v>
       </c>
       <c r="H32">
-        <v>0.04944037867644081</v>
+        <v>-0.04507335168350722</v>
       </c>
       <c r="I32">
-        <v>0.09161993645776963</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.05919169947274058</v>
+      </c>
+      <c r="J32">
+        <v>-0.007072929842374532</v>
+      </c>
+      <c r="K32">
+        <v>0.02569847281365861</v>
+      </c>
+      <c r="L32">
+        <v>-0.0468573359007247</v>
+      </c>
+      <c r="M32">
+        <v>-0.1161240652830906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1011357207010312</v>
+        <v>-0.09626607697754673</v>
       </c>
       <c r="C33">
-        <v>-0.06096215831574602</v>
+        <v>0.06639677354247661</v>
       </c>
       <c r="D33">
-        <v>0.007170738166237946</v>
+        <v>-0.007415458622056463</v>
       </c>
       <c r="E33">
-        <v>0.0001958689801562455</v>
+        <v>0.01806652544818521</v>
       </c>
       <c r="F33">
-        <v>-0.02361068943425424</v>
+        <v>-0.06553231937685754</v>
       </c>
       <c r="G33">
-        <v>0.04058082192656739</v>
+        <v>0.0306653875963072</v>
       </c>
       <c r="H33">
-        <v>0.02826658644159273</v>
+        <v>-0.0557223814543846</v>
       </c>
       <c r="I33">
-        <v>0.01540082435742773</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.02823962216850225</v>
+      </c>
+      <c r="J33">
+        <v>0.02758260124443058</v>
+      </c>
+      <c r="K33">
+        <v>-0.02869203108203279</v>
+      </c>
+      <c r="L33">
+        <v>-0.01232651362367002</v>
+      </c>
+      <c r="M33">
+        <v>0.02575245298081311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05219389403144137</v>
+        <v>-0.06284533272421824</v>
       </c>
       <c r="C34">
-        <v>-0.0827857316291834</v>
+        <v>0.06343357796396992</v>
       </c>
       <c r="D34">
-        <v>0.02320853911001345</v>
+        <v>-0.02591584993403034</v>
       </c>
       <c r="E34">
-        <v>0.03863274192723076</v>
+        <v>-0.008334944174013327</v>
       </c>
       <c r="F34">
-        <v>-0.02301000793204757</v>
+        <v>-0.09928237159957089</v>
       </c>
       <c r="G34">
-        <v>0.005844542967663248</v>
+        <v>0.01697504690864938</v>
       </c>
       <c r="H34">
-        <v>0.01916493199207408</v>
+        <v>-0.04578941464142174</v>
       </c>
       <c r="I34">
-        <v>0.04815870742621863</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.03929380224075386</v>
+      </c>
+      <c r="J34">
+        <v>-0.01342788272645987</v>
+      </c>
+      <c r="K34">
+        <v>0.05660753550369087</v>
+      </c>
+      <c r="L34">
+        <v>0.007829886430734696</v>
+      </c>
+      <c r="M34">
+        <v>0.08665488904325874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03548272276446016</v>
+        <v>-0.02641685529413895</v>
       </c>
       <c r="C35">
-        <v>-0.02852873841004087</v>
+        <v>0.0242076165488748</v>
       </c>
       <c r="D35">
-        <v>0.008524494438376549</v>
+        <v>0.001715245278391321</v>
       </c>
       <c r="E35">
-        <v>0.01479333625373202</v>
+        <v>0.0008782746253569833</v>
       </c>
       <c r="F35">
-        <v>-0.006737571223556681</v>
+        <v>-0.01836786295222754</v>
       </c>
       <c r="G35">
-        <v>0.0361343498763145</v>
+        <v>0.02107859599666619</v>
       </c>
       <c r="H35">
-        <v>0.01924900390826714</v>
+        <v>-0.03707713734541182</v>
       </c>
       <c r="I35">
-        <v>0.03062159059201763</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.05224585185035286</v>
+      </c>
+      <c r="J35">
+        <v>0.008925200030166149</v>
+      </c>
+      <c r="K35">
+        <v>0.02078021368783483</v>
+      </c>
+      <c r="L35">
+        <v>-0.06560045567516612</v>
+      </c>
+      <c r="M35">
+        <v>-0.005076954455222725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02743975810588785</v>
+        <v>-0.02919218631879556</v>
       </c>
       <c r="C36">
-        <v>-0.01881787588592427</v>
+        <v>0.02034457305972998</v>
       </c>
       <c r="D36">
-        <v>0.02935123975308051</v>
+        <v>0.013829386849816</v>
       </c>
       <c r="E36">
-        <v>0.02053559609721089</v>
+        <v>-0.01399189676619689</v>
       </c>
       <c r="F36">
-        <v>-0.009665622850904072</v>
+        <v>-0.06169432305600923</v>
       </c>
       <c r="G36">
-        <v>0.02849266926942197</v>
+        <v>0.01387187819020167</v>
       </c>
       <c r="H36">
-        <v>-0.00841466312591118</v>
+        <v>-0.04307409386595167</v>
       </c>
       <c r="I36">
-        <v>-0.003962125863821798</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.03655302121581006</v>
+      </c>
+      <c r="J36">
+        <v>0.007502151205431794</v>
+      </c>
+      <c r="K36">
+        <v>-0.03774110574781929</v>
+      </c>
+      <c r="L36">
+        <v>-0.04124803485609097</v>
+      </c>
+      <c r="M36">
+        <v>0.02440452579159204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04055344812194453</v>
+        <v>-0.03162037946143376</v>
       </c>
       <c r="C38">
-        <v>-0.03267605776095926</v>
+        <v>0.04792016614259043</v>
       </c>
       <c r="D38">
-        <v>-0.02946538665231192</v>
+        <v>0.02422203126505849</v>
       </c>
       <c r="E38">
-        <v>0.03506587451408057</v>
+        <v>0.001018186650625044</v>
       </c>
       <c r="F38">
-        <v>-0.003461499557486033</v>
+        <v>0.04340541317709334</v>
       </c>
       <c r="G38">
-        <v>0.000323751261495808</v>
+        <v>0.04632060682397456</v>
       </c>
       <c r="H38">
-        <v>0.048563347396706</v>
+        <v>0.04612455308594052</v>
       </c>
       <c r="I38">
-        <v>0.01846754409238865</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.02462703733885592</v>
+      </c>
+      <c r="J38">
+        <v>0.115251374925848</v>
+      </c>
+      <c r="K38">
+        <v>-0.02404973612242692</v>
+      </c>
+      <c r="L38">
+        <v>-0.07469305813512937</v>
+      </c>
+      <c r="M38">
+        <v>-0.04629707440675394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09573111244336091</v>
+        <v>-0.09702542109492923</v>
       </c>
       <c r="C39">
-        <v>-0.1073693879831455</v>
+        <v>0.08975212102631805</v>
       </c>
       <c r="D39">
-        <v>0.02083541627803012</v>
+        <v>-0.08007957130888867</v>
       </c>
       <c r="E39">
-        <v>0.02291461298840244</v>
+        <v>0.0211413207645208</v>
       </c>
       <c r="F39">
-        <v>-0.03679928041477953</v>
+        <v>-0.1518572751717427</v>
       </c>
       <c r="G39">
-        <v>-0.03985204100875033</v>
+        <v>0.08882973405314802</v>
       </c>
       <c r="H39">
-        <v>0.05309667261247233</v>
+        <v>0.01164082097788259</v>
       </c>
       <c r="I39">
-        <v>0.1538045737147248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.1359582005484639</v>
+      </c>
+      <c r="J39">
+        <v>-0.05918508755575796</v>
+      </c>
+      <c r="K39">
+        <v>0.192889176157358</v>
+      </c>
+      <c r="L39">
+        <v>-0.05188823459937972</v>
+      </c>
+      <c r="M39">
+        <v>-0.02005531862055716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.056827385426099</v>
+        <v>-0.03632843391212212</v>
       </c>
       <c r="C40">
-        <v>-0.05244377171511266</v>
+        <v>0.05949010546478512</v>
       </c>
       <c r="D40">
-        <v>-0.03451935390053783</v>
+        <v>0.04882123044452068</v>
       </c>
       <c r="E40">
-        <v>0.1398487090166629</v>
+        <v>0.002296801348634337</v>
       </c>
       <c r="F40">
-        <v>-0.04039685061297815</v>
+        <v>-0.1224221400635131</v>
       </c>
       <c r="G40">
-        <v>0.0237303926174068</v>
+        <v>-0.06740166779052949</v>
       </c>
       <c r="H40">
-        <v>0.07283901717374004</v>
+        <v>-0.008251391110095672</v>
       </c>
       <c r="I40">
-        <v>0.1623238904917753</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.01255795517526731</v>
+      </c>
+      <c r="J40">
+        <v>0.1318202295351356</v>
+      </c>
+      <c r="K40">
+        <v>0.01536125210085897</v>
+      </c>
+      <c r="L40">
+        <v>-0.1210281667138458</v>
+      </c>
+      <c r="M40">
+        <v>-0.001147884965766155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04320552619495657</v>
+        <v>-0.03578397171402015</v>
       </c>
       <c r="C41">
-        <v>-0.05518209894120232</v>
+        <v>0.03701265532214126</v>
       </c>
       <c r="D41">
-        <v>0.009352179824126868</v>
+        <v>-0.01758618449756875</v>
       </c>
       <c r="E41">
-        <v>-0.004715109110961254</v>
+        <v>0.005057555067335279</v>
       </c>
       <c r="F41">
-        <v>-0.01892423913412484</v>
+        <v>-0.0181466103862663</v>
       </c>
       <c r="G41">
-        <v>0.02138232342623042</v>
+        <v>0.02624578576268562</v>
       </c>
       <c r="H41">
-        <v>0.02522209712339447</v>
+        <v>-0.005521499177300563</v>
       </c>
       <c r="I41">
-        <v>0.03566392503719994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.01277510583034659</v>
+      </c>
+      <c r="J41">
+        <v>0.01420704850022383</v>
+      </c>
+      <c r="K41">
+        <v>0.0006499263500518059</v>
+      </c>
+      <c r="L41">
+        <v>-0.04357895131399556</v>
+      </c>
+      <c r="M41">
+        <v>0.02849041709288334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05469074053258211</v>
+        <v>-0.05045024753849704</v>
       </c>
       <c r="C43">
-        <v>-0.04407700428714463</v>
+        <v>0.04753184343455272</v>
       </c>
       <c r="D43">
-        <v>0.02649791545190143</v>
+        <v>0.01266909176726133</v>
       </c>
       <c r="E43">
-        <v>0.01660615231285006</v>
+        <v>-0.01349586475407655</v>
       </c>
       <c r="F43">
-        <v>0.007279316144442416</v>
+        <v>-0.01584781433017222</v>
       </c>
       <c r="G43">
-        <v>0.02300917949715062</v>
+        <v>0.05860288782898158</v>
       </c>
       <c r="H43">
-        <v>0.04296481446592369</v>
+        <v>3.60065694629558e-05</v>
       </c>
       <c r="I43">
-        <v>-0.01797455228610136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.00164852358271033</v>
+      </c>
+      <c r="J43">
+        <v>-0.002980134106947206</v>
+      </c>
+      <c r="K43">
+        <v>0.006282736171585385</v>
+      </c>
+      <c r="L43">
+        <v>-0.02823244773868827</v>
+      </c>
+      <c r="M43">
+        <v>0.02954678366696707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05352443893093178</v>
+        <v>-0.08177766137964822</v>
       </c>
       <c r="C44">
-        <v>-0.02942409518487988</v>
+        <v>0.06043043947395252</v>
       </c>
       <c r="D44">
-        <v>0.06402154905691443</v>
+        <v>0.06781914816842519</v>
       </c>
       <c r="E44">
-        <v>0.1324047616122004</v>
+        <v>-0.09174575695820016</v>
       </c>
       <c r="F44">
-        <v>-0.04485819095802177</v>
+        <v>-0.1565563875683693</v>
       </c>
       <c r="G44">
-        <v>0.01463524432649565</v>
+        <v>0.007070334540817002</v>
       </c>
       <c r="H44">
-        <v>-0.002704941586679087</v>
+        <v>-0.07348414587668076</v>
       </c>
       <c r="I44">
-        <v>0.1102724461034846</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.05127442111117327</v>
+      </c>
+      <c r="J44">
+        <v>0.03417975366756514</v>
+      </c>
+      <c r="K44">
+        <v>0.03330513088058432</v>
+      </c>
+      <c r="L44">
+        <v>-0.06413555145316692</v>
+      </c>
+      <c r="M44">
+        <v>-0.06810745262457545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02200264046896877</v>
+        <v>-0.03452709104576564</v>
       </c>
       <c r="C46">
-        <v>-0.04228244874934541</v>
+        <v>0.03855878999238969</v>
       </c>
       <c r="D46">
-        <v>0.01532608102645986</v>
+        <v>0.0472610221181219</v>
       </c>
       <c r="E46">
-        <v>0.04808019132788355</v>
+        <v>-0.0364182501133198</v>
       </c>
       <c r="F46">
-        <v>0.001304079957284978</v>
+        <v>-0.02186204025050008</v>
       </c>
       <c r="G46">
-        <v>0.005459473856053635</v>
+        <v>-0.008877745849827347</v>
       </c>
       <c r="H46">
-        <v>0.002640934836474499</v>
+        <v>-0.0651109290141992</v>
       </c>
       <c r="I46">
-        <v>0.02343163524795709</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>-0.001103932086759722</v>
+      </c>
+      <c r="J46">
+        <v>0.03003308769878464</v>
+      </c>
+      <c r="K46">
+        <v>-0.06515961465707341</v>
+      </c>
+      <c r="L46">
+        <v>-0.05684569355602621</v>
+      </c>
+      <c r="M46">
+        <v>-0.004825319777151151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02695120219313592</v>
+        <v>-0.04480646472241091</v>
       </c>
       <c r="C47">
-        <v>-0.002159127582280862</v>
+        <v>0.02732917980621526</v>
       </c>
       <c r="D47">
-        <v>-0.01067146908276034</v>
+        <v>0.02156139617096088</v>
       </c>
       <c r="E47">
-        <v>0.0678798172059024</v>
+        <v>-0.00749792073975616</v>
       </c>
       <c r="F47">
-        <v>-0.00837903993880835</v>
+        <v>-0.02974047174825942</v>
       </c>
       <c r="G47">
-        <v>0.04382584720581109</v>
+        <v>0.02753818515143655</v>
       </c>
       <c r="H47">
-        <v>-0.01704676645611259</v>
+        <v>-0.02723004673974959</v>
       </c>
       <c r="I47">
-        <v>-0.02054794647529779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.03155983055174435</v>
+      </c>
+      <c r="J47">
+        <v>0.02421197906978614</v>
+      </c>
+      <c r="K47">
+        <v>-0.03920488404981957</v>
+      </c>
+      <c r="L47">
+        <v>-0.01281749681640986</v>
+      </c>
+      <c r="M47">
+        <v>0.04230265579280387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03244897703292515</v>
+        <v>-0.0421137537359681</v>
       </c>
       <c r="C48">
-        <v>-0.02678423582832745</v>
+        <v>0.02057467279762644</v>
       </c>
       <c r="D48">
-        <v>0.005200463457807438</v>
+        <v>0.0145676465461356</v>
       </c>
       <c r="E48">
-        <v>0.0423026681468552</v>
+        <v>-0.0002261047210211514</v>
       </c>
       <c r="F48">
-        <v>0.001431989396416717</v>
+        <v>-0.06543356474575004</v>
       </c>
       <c r="G48">
-        <v>0.04635857037742771</v>
+        <v>-0.02010433408759158</v>
       </c>
       <c r="H48">
-        <v>0.0289696578359392</v>
+        <v>-0.05329671442274963</v>
       </c>
       <c r="I48">
-        <v>-0.005567556031843738</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.03771613518297517</v>
+      </c>
+      <c r="J48">
+        <v>-0.009345192975513962</v>
+      </c>
+      <c r="K48">
+        <v>-0.008249823111230754</v>
+      </c>
+      <c r="L48">
+        <v>-0.05532474483616352</v>
+      </c>
+      <c r="M48">
+        <v>0.02742981014077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1892459917544307</v>
+        <v>-0.2244475287958853</v>
       </c>
       <c r="C49">
-        <v>-0.1246040128353515</v>
+        <v>0.08501004383980369</v>
       </c>
       <c r="D49">
-        <v>0.08248075192129088</v>
+        <v>-0.06638873495328192</v>
       </c>
       <c r="E49">
-        <v>-0.07567108368809104</v>
+        <v>-0.03091258005700431</v>
       </c>
       <c r="F49">
-        <v>0.161862194000619</v>
+        <v>0.2330186054187617</v>
       </c>
       <c r="G49">
-        <v>-0.11678563248761</v>
+        <v>-0.1472791390497625</v>
       </c>
       <c r="H49">
-        <v>-0.0483249314451569</v>
+        <v>0.04595024821227058</v>
       </c>
       <c r="I49">
-        <v>0.02548897901302715</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.09885340101709396</v>
+      </c>
+      <c r="J49">
+        <v>0.06597964719979869</v>
+      </c>
+      <c r="K49">
+        <v>0.1762835697485353</v>
+      </c>
+      <c r="L49">
+        <v>0.1206422677255952</v>
+      </c>
+      <c r="M49">
+        <v>0.08264649078519697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05297953241679869</v>
+        <v>-0.04289587898655318</v>
       </c>
       <c r="C50">
-        <v>-0.03084729953585201</v>
+        <v>0.04235111026169662</v>
       </c>
       <c r="D50">
-        <v>0.006623429616416982</v>
+        <v>0.003602722491308706</v>
       </c>
       <c r="E50">
-        <v>0.01744757181871568</v>
+        <v>0.009310073731979052</v>
       </c>
       <c r="F50">
-        <v>-0.01414231679777711</v>
+        <v>-0.0415336977532027</v>
       </c>
       <c r="G50">
-        <v>0.07762484181480854</v>
+        <v>0.0392794680796628</v>
       </c>
       <c r="H50">
-        <v>-0.0210087818704251</v>
+        <v>-0.04383175755853456</v>
       </c>
       <c r="I50">
-        <v>-0.01156460031539395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.01237059240516585</v>
+      </c>
+      <c r="J50">
+        <v>-0.001885735331671885</v>
+      </c>
+      <c r="K50">
+        <v>-0.05195271679795096</v>
+      </c>
+      <c r="L50">
+        <v>-0.01953249416164781</v>
+      </c>
+      <c r="M50">
+        <v>-0.04559113420696925</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02406499715449514</v>
+        <v>-0.0302883759950676</v>
       </c>
       <c r="C51">
-        <v>-0.01275169495544821</v>
+        <v>0.005845036270766802</v>
       </c>
       <c r="D51">
-        <v>-0.009107264845273759</v>
+        <v>-0.00175917843185528</v>
       </c>
       <c r="E51">
-        <v>0.01167967832677026</v>
+        <v>-0.01675261722417083</v>
       </c>
       <c r="F51">
-        <v>0.0008236757525817062</v>
+        <v>0.01719809981952019</v>
       </c>
       <c r="G51">
-        <v>-0.02896076822736037</v>
+        <v>0.002523732137782431</v>
       </c>
       <c r="H51">
-        <v>-0.002315180849019412</v>
+        <v>0.02612288090774917</v>
       </c>
       <c r="I51">
-        <v>0.02893627427456691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.008646537817983527</v>
+      </c>
+      <c r="J51">
+        <v>-0.01513238464469342</v>
+      </c>
+      <c r="K51">
+        <v>0.06974161775386012</v>
+      </c>
+      <c r="L51">
+        <v>0.05331311559665947</v>
+      </c>
+      <c r="M51">
+        <v>0.0177530766670812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.01170033383907348</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.002996385331072219</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01497705890753255</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.004060039999858256</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.002114023861479243</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.00349083530123758</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.004605255611589861</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.00422488555538113</v>
+      </c>
+      <c r="J52">
+        <v>-0.0198611736273886</v>
+      </c>
+      <c r="K52">
+        <v>0.009833503021335756</v>
+      </c>
+      <c r="L52">
+        <v>-0.005052867589317742</v>
+      </c>
+      <c r="M52">
+        <v>-0.03108208237423239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1659152019321495</v>
+        <v>-0.1544213533357059</v>
       </c>
       <c r="C53">
-        <v>-0.01451401688358185</v>
+        <v>0.04695572518168974</v>
       </c>
       <c r="D53">
-        <v>0.03298379090373983</v>
+        <v>-0.0164476026285534</v>
       </c>
       <c r="E53">
-        <v>-0.07758107936134902</v>
+        <v>0.004974003178176292</v>
       </c>
       <c r="F53">
-        <v>-0.2237514659753758</v>
+        <v>0.06442489312293731</v>
       </c>
       <c r="G53">
-        <v>0.1349675292396829</v>
+        <v>0.2119971532652702</v>
       </c>
       <c r="H53">
-        <v>0.02275645747384791</v>
+        <v>-0.0514051640303999</v>
       </c>
       <c r="I53">
-        <v>-0.0507511108812181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1144327795958189</v>
+      </c>
+      <c r="J53">
+        <v>0.02250196441470944</v>
+      </c>
+      <c r="K53">
+        <v>-0.06758122314733482</v>
+      </c>
+      <c r="L53">
+        <v>0.07138947605998885</v>
+      </c>
+      <c r="M53">
+        <v>-0.1141343160478926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05184101522878627</v>
+        <v>-0.05893181897807937</v>
       </c>
       <c r="C54">
-        <v>-0.03696792389293597</v>
+        <v>0.03306502280935123</v>
       </c>
       <c r="D54">
-        <v>0.03540601027072653</v>
+        <v>0.02365787712231046</v>
       </c>
       <c r="E54">
-        <v>0.03796023619549668</v>
+        <v>-0.02589251247871934</v>
       </c>
       <c r="F54">
-        <v>-0.01264200382115996</v>
+        <v>-0.1041160336885803</v>
       </c>
       <c r="G54">
-        <v>0.02710986600477292</v>
+        <v>-0.0183600347976305</v>
       </c>
       <c r="H54">
-        <v>0.01947285409295202</v>
+        <v>-0.06362930639489943</v>
       </c>
       <c r="I54">
-        <v>-0.018299691052547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.002576469115248159</v>
+      </c>
+      <c r="J54">
+        <v>-0.02378821845011458</v>
+      </c>
+      <c r="K54">
+        <v>-0.1005528528666201</v>
+      </c>
+      <c r="L54">
+        <v>-0.08877097479475041</v>
+      </c>
+      <c r="M54">
+        <v>0.008184747929240767</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09280684679191847</v>
+        <v>-0.0854931252724602</v>
       </c>
       <c r="C55">
-        <v>-0.006697672361496232</v>
+        <v>0.03697986017055789</v>
       </c>
       <c r="D55">
-        <v>0.02991749794725114</v>
+        <v>-0.02661932943212813</v>
       </c>
       <c r="E55">
-        <v>-0.008949042681433461</v>
+        <v>-0.005447666071941977</v>
       </c>
       <c r="F55">
-        <v>-0.1889009149013139</v>
+        <v>-0.008619408756865966</v>
       </c>
       <c r="G55">
-        <v>0.1363093569176494</v>
+        <v>0.1453741108345124</v>
       </c>
       <c r="H55">
-        <v>-0.006230596346577875</v>
+        <v>-0.05745606824309489</v>
       </c>
       <c r="I55">
-        <v>-0.03556545252096812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.07163026529853532</v>
+      </c>
+      <c r="J55">
+        <v>0.01669709589573794</v>
+      </c>
+      <c r="K55">
+        <v>-0.04224320294835961</v>
+      </c>
+      <c r="L55">
+        <v>0.05275417495718047</v>
+      </c>
+      <c r="M55">
+        <v>-0.05808485257457721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1663783847012567</v>
+        <v>-0.1494819820770464</v>
       </c>
       <c r="C56">
-        <v>-0.0127576463578685</v>
+        <v>0.06902989849929007</v>
       </c>
       <c r="D56">
-        <v>0.05528438822913446</v>
+        <v>-0.03415866059958667</v>
       </c>
       <c r="E56">
-        <v>-0.07022858704776269</v>
+        <v>-0.009931585705172222</v>
       </c>
       <c r="F56">
-        <v>-0.1936814458032103</v>
+        <v>0.03627473104057116</v>
       </c>
       <c r="G56">
-        <v>0.1304693518632883</v>
+        <v>0.2124216942725503</v>
       </c>
       <c r="H56">
-        <v>0.03359578532123889</v>
+        <v>-0.02189258637643116</v>
       </c>
       <c r="I56">
-        <v>-0.07872014536860786</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1439272158261559</v>
+      </c>
+      <c r="J56">
+        <v>0.0349976236489726</v>
+      </c>
+      <c r="K56">
+        <v>-0.06146485424904574</v>
+      </c>
+      <c r="L56">
+        <v>0.05106178525354023</v>
+      </c>
+      <c r="M56">
+        <v>-0.07675621029604354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.03908268944785758</v>
+        <v>-0.03819527276678567</v>
       </c>
       <c r="C58">
-        <v>-0.05006052551136679</v>
+        <v>0.03299951586323672</v>
       </c>
       <c r="D58">
-        <v>0.009875843047035362</v>
+        <v>0.08276067861211435</v>
       </c>
       <c r="E58">
-        <v>0.3153074083571575</v>
+        <v>-0.03118701173749543</v>
       </c>
       <c r="F58">
-        <v>0.2137782062509874</v>
+        <v>-0.03933689214078233</v>
       </c>
       <c r="G58">
-        <v>0.09054382974014316</v>
+        <v>-0.05108038667413582</v>
       </c>
       <c r="H58">
-        <v>-0.1523351082806778</v>
+        <v>-0.04062576503268132</v>
       </c>
       <c r="I58">
-        <v>-0.0141432288816386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.2889397708589369</v>
+      </c>
+      <c r="J58">
+        <v>-0.2364097341306899</v>
+      </c>
+      <c r="K58">
+        <v>0.1023687970398645</v>
+      </c>
+      <c r="L58">
+        <v>0.0009123241248467195</v>
+      </c>
+      <c r="M58">
+        <v>0.2410209989042669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2489575418926454</v>
+        <v>-0.2298008468017723</v>
       </c>
       <c r="C59">
-        <v>0.4047419153308912</v>
+        <v>-0.2997150223106268</v>
       </c>
       <c r="D59">
-        <v>0.02302745219540379</v>
+        <v>-0.03895370100603775</v>
       </c>
       <c r="E59">
-        <v>0.04316146611693109</v>
+        <v>-0.004845965183491448</v>
       </c>
       <c r="F59">
-        <v>-0.06695177458916002</v>
+        <v>-0.02549189700714608</v>
       </c>
       <c r="G59">
-        <v>-0.04286549042134476</v>
+        <v>0.05299324921773886</v>
       </c>
       <c r="H59">
-        <v>0.07069931490013201</v>
+        <v>0.02481471152607793</v>
       </c>
       <c r="I59">
-        <v>0.01520381231596227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.12666721854593</v>
+      </c>
+      <c r="J59">
+        <v>-0.02813887979143073</v>
+      </c>
+      <c r="K59">
+        <v>0.06484170941495113</v>
+      </c>
+      <c r="L59">
+        <v>0.02692596031427933</v>
+      </c>
+      <c r="M59">
+        <v>0.008420400787294533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.247400100679729</v>
+        <v>-0.2424091629734715</v>
       </c>
       <c r="C60">
-        <v>-0.07106872320712182</v>
+        <v>0.1175184566952235</v>
       </c>
       <c r="D60">
-        <v>0.0853230563213291</v>
+        <v>-0.06674023288420609</v>
       </c>
       <c r="E60">
-        <v>0.02136492792367043</v>
+        <v>-0.03915621988983542</v>
       </c>
       <c r="F60">
-        <v>0.05153680699577196</v>
+        <v>0.1049987513959331</v>
       </c>
       <c r="G60">
-        <v>-0.05887469653652888</v>
+        <v>-0.02853862305570245</v>
       </c>
       <c r="H60">
-        <v>-0.05913964884717827</v>
+        <v>0.1066271020879959</v>
       </c>
       <c r="I60">
-        <v>-0.07160424347636528</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.006290639903258143</v>
+      </c>
+      <c r="J60">
+        <v>-0.0036985960003459</v>
+      </c>
+      <c r="K60">
+        <v>-0.02665504891828885</v>
+      </c>
+      <c r="L60">
+        <v>0.207275465363091</v>
+      </c>
+      <c r="M60">
+        <v>-0.0001795117610558545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08328340002838934</v>
+        <v>-0.09051905720866402</v>
       </c>
       <c r="C61">
-        <v>-0.06151416600915856</v>
+        <v>0.06493951160854221</v>
       </c>
       <c r="D61">
-        <v>0.02544297903715604</v>
+        <v>-0.04206195208628713</v>
       </c>
       <c r="E61">
-        <v>0.004097473748514303</v>
+        <v>-0.01032656239450413</v>
       </c>
       <c r="F61">
-        <v>-0.01632853590195405</v>
+        <v>-0.1169514695989976</v>
       </c>
       <c r="G61">
-        <v>0.004043014828838389</v>
+        <v>0.07558232567242805</v>
       </c>
       <c r="H61">
-        <v>0.03048779980332397</v>
+        <v>-0.02220494146989509</v>
       </c>
       <c r="I61">
-        <v>0.07863218773103806</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.05530253526279897</v>
+      </c>
+      <c r="J61">
+        <v>-0.01626498142998291</v>
+      </c>
+      <c r="K61">
+        <v>0.07413004489608313</v>
+      </c>
+      <c r="L61">
+        <v>-0.04975396538371861</v>
+      </c>
+      <c r="M61">
+        <v>-0.0060876004041378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1681111175388475</v>
+        <v>-0.1453474908257423</v>
       </c>
       <c r="C62">
-        <v>-0.05874926647884934</v>
+        <v>0.07890524842283927</v>
       </c>
       <c r="D62">
-        <v>0.03246841687583869</v>
+        <v>-0.03464577794766447</v>
       </c>
       <c r="E62">
-        <v>-0.1179907457745074</v>
+        <v>0.02708535234180388</v>
       </c>
       <c r="F62">
-        <v>-0.2347642529016518</v>
+        <v>0.01936784992612527</v>
       </c>
       <c r="G62">
-        <v>0.07921133109564014</v>
+        <v>0.1531826043548613</v>
       </c>
       <c r="H62">
-        <v>0.03625311529307915</v>
+        <v>-0.06615994987377086</v>
       </c>
       <c r="I62">
-        <v>-0.02248370791579628</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1273264437022213</v>
+      </c>
+      <c r="J62">
+        <v>0.09438654850013627</v>
+      </c>
+      <c r="K62">
+        <v>-0.11453958815759</v>
+      </c>
+      <c r="L62">
+        <v>0.05411813138862263</v>
+      </c>
+      <c r="M62">
+        <v>-0.07159181488420611</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.0436374691899599</v>
+        <v>-0.04483269097314153</v>
       </c>
       <c r="C63">
-        <v>-0.04041618138701165</v>
+        <v>0.02709328521676819</v>
       </c>
       <c r="D63">
-        <v>0.02211431936108645</v>
+        <v>-0.005751711131035508</v>
       </c>
       <c r="E63">
-        <v>0.007635982416330969</v>
+        <v>0.01025382019164184</v>
       </c>
       <c r="F63">
-        <v>-0.02263543131453154</v>
+        <v>-0.05928531858567761</v>
       </c>
       <c r="G63">
-        <v>0.04067016773233775</v>
+        <v>0.01043061657965233</v>
       </c>
       <c r="H63">
-        <v>-0.05282259364495577</v>
+        <v>-0.03342387316805714</v>
       </c>
       <c r="I63">
-        <v>0.01165096999068463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.05061824029443707</v>
+      </c>
+      <c r="J63">
+        <v>-0.006445157665533299</v>
+      </c>
+      <c r="K63">
+        <v>-0.03368994562460283</v>
+      </c>
+      <c r="L63">
+        <v>-0.01527674545537148</v>
+      </c>
+      <c r="M63">
+        <v>-0.01151731630882576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1020438287252014</v>
+        <v>-0.1006624584970061</v>
       </c>
       <c r="C64">
-        <v>-0.03338983352131689</v>
+        <v>0.04896591649719779</v>
       </c>
       <c r="D64">
-        <v>0.03753657785154437</v>
+        <v>0.005962009158313288</v>
       </c>
       <c r="E64">
-        <v>0.04115677344111644</v>
+        <v>-0.0348666536727286</v>
       </c>
       <c r="F64">
-        <v>0.01505790693179222</v>
+        <v>-0.06333235024668291</v>
       </c>
       <c r="G64">
-        <v>0.00602642734955196</v>
+        <v>0.01922823805910512</v>
       </c>
       <c r="H64">
-        <v>0.007626797216473077</v>
+        <v>0.00804098128504098</v>
       </c>
       <c r="I64">
-        <v>0.08444104200716217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.0825284210109142</v>
+      </c>
+      <c r="J64">
+        <v>-0.001845903708089353</v>
+      </c>
+      <c r="K64">
+        <v>0.009040037982745873</v>
+      </c>
+      <c r="L64">
+        <v>-0.04357765405022162</v>
+      </c>
+      <c r="M64">
+        <v>-0.03181618789793671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1291000221981234</v>
+        <v>-0.1248663056936342</v>
       </c>
       <c r="C65">
-        <v>-0.05793803851917944</v>
+        <v>0.04657066007843225</v>
       </c>
       <c r="D65">
-        <v>0.0553996960018762</v>
+        <v>-0.006723325688380819</v>
       </c>
       <c r="E65">
-        <v>0.1351619877825933</v>
+        <v>-0.007079449804999912</v>
       </c>
       <c r="F65">
-        <v>0.1494670832556668</v>
+        <v>-0.05479993980346812</v>
       </c>
       <c r="G65">
-        <v>0.05057687893264546</v>
+        <v>-0.1667953150954209</v>
       </c>
       <c r="H65">
-        <v>-0.5176983195147595</v>
+        <v>0.06027775969398089</v>
       </c>
       <c r="I65">
-        <v>-0.4244515168485374</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.2072175996296842</v>
+      </c>
+      <c r="J65">
+        <v>-0.1060627137911823</v>
+      </c>
+      <c r="K65">
+        <v>-0.5730449705970008</v>
+      </c>
+      <c r="L65">
+        <v>0.3113583779551514</v>
+      </c>
+      <c r="M65">
+        <v>-0.02424121871497556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1563501130503034</v>
+        <v>-0.1250770695918988</v>
       </c>
       <c r="C66">
-        <v>-0.1542417421565434</v>
+        <v>0.132853504762572</v>
       </c>
       <c r="D66">
-        <v>0.05274748011145545</v>
+        <v>-0.1029654400723947</v>
       </c>
       <c r="E66">
-        <v>-0.0204388939420176</v>
+        <v>0.03125338419358097</v>
       </c>
       <c r="F66">
-        <v>-0.07229278950788003</v>
+        <v>-0.1669921368448335</v>
       </c>
       <c r="G66">
-        <v>-0.08184528926868471</v>
+        <v>0.09173128959004563</v>
       </c>
       <c r="H66">
-        <v>0.09929594900702812</v>
+        <v>-0.00102297719562508</v>
       </c>
       <c r="I66">
-        <v>0.3216682387946451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.1176821137482213</v>
+      </c>
+      <c r="J66">
+        <v>-0.001701912384932858</v>
+      </c>
+      <c r="K66">
+        <v>0.2442245079900991</v>
+      </c>
+      <c r="L66">
+        <v>-0.06507142074112739</v>
+      </c>
+      <c r="M66">
+        <v>-0.03741770199670425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07510811895179903</v>
+        <v>-0.08144106121841684</v>
       </c>
       <c r="C67">
-        <v>-0.05024164793103147</v>
+        <v>0.06196417273086063</v>
       </c>
       <c r="D67">
-        <v>0.01037273783899854</v>
+        <v>0.01319003154973595</v>
       </c>
       <c r="E67">
-        <v>0.002329740671655276</v>
+        <v>-0.02129722423707069</v>
       </c>
       <c r="F67">
-        <v>0.003628840648093451</v>
+        <v>0.03270741308962018</v>
       </c>
       <c r="G67">
-        <v>-0.01899694282794174</v>
+        <v>0.0835000037831083</v>
       </c>
       <c r="H67">
-        <v>0.05448166596230136</v>
+        <v>0.08575488933234553</v>
       </c>
       <c r="I67">
-        <v>0.02919070254078953</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.04038602522772829</v>
+      </c>
+      <c r="J67">
+        <v>0.1111518969024328</v>
+      </c>
+      <c r="K67">
+        <v>0.02681230074778372</v>
+      </c>
+      <c r="L67">
+        <v>-0.0548741730850811</v>
+      </c>
+      <c r="M67">
+        <v>-0.01513503637765213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1057311304277419</v>
+        <v>-0.1231728856631697</v>
       </c>
       <c r="C68">
-        <v>0.2716836073205016</v>
+        <v>-0.274540537620168</v>
       </c>
       <c r="D68">
-        <v>-0.006015814979007707</v>
+        <v>-0.002698234113212705</v>
       </c>
       <c r="E68">
-        <v>0.02109011269616648</v>
+        <v>-0.001956157942374512</v>
       </c>
       <c r="F68">
-        <v>-0.009752640316435425</v>
+        <v>-0.02304654602833217</v>
       </c>
       <c r="G68">
-        <v>0.05473601973485441</v>
+        <v>0.03306319837271306</v>
       </c>
       <c r="H68">
-        <v>-0.0009984665884010294</v>
+        <v>-0.01779230151121788</v>
       </c>
       <c r="I68">
-        <v>-0.01629507555451935</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.04376971788475017</v>
+      </c>
+      <c r="J68">
+        <v>-0.01718056471743851</v>
+      </c>
+      <c r="K68">
+        <v>-0.05489999470652029</v>
+      </c>
+      <c r="L68">
+        <v>-4.086426783060133e-05</v>
+      </c>
+      <c r="M68">
+        <v>-0.03328188870106862</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03990246378167042</v>
+        <v>-0.04244045308771376</v>
       </c>
       <c r="C69">
-        <v>-0.02975082003310808</v>
+        <v>0.02269708967495088</v>
       </c>
       <c r="D69">
-        <v>0.00631987186158008</v>
+        <v>0.01115186951212971</v>
       </c>
       <c r="E69">
-        <v>0.01295555919656165</v>
+        <v>0.005257815523151448</v>
       </c>
       <c r="F69">
-        <v>-0.04500266818079938</v>
+        <v>-0.01350037499933657</v>
       </c>
       <c r="G69">
-        <v>-0.01071358158936876</v>
+        <v>0.0387273547014771</v>
       </c>
       <c r="H69">
-        <v>0.01358547902857259</v>
+        <v>0.005359590014230153</v>
       </c>
       <c r="I69">
-        <v>-0.03310504109067627</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.005656881120746471</v>
+      </c>
+      <c r="J69">
+        <v>0.02863023853575767</v>
+      </c>
+      <c r="K69">
+        <v>-0.009501112933468314</v>
+      </c>
+      <c r="L69">
+        <v>0.00484369496960245</v>
+      </c>
+      <c r="M69">
+        <v>0.06656292317492031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04427467678892922</v>
+        <v>-0.05173438452196916</v>
       </c>
       <c r="C70">
-        <v>-0.001160952646496458</v>
+        <v>0.03505939779293561</v>
       </c>
       <c r="D70">
-        <v>0.02564889996278359</v>
+        <v>-0.02040287050984277</v>
       </c>
       <c r="E70">
-        <v>-0.02689494919411784</v>
+        <v>-0.01136092292917101</v>
       </c>
       <c r="F70">
-        <v>0.1103216444888638</v>
+        <v>-0.001712389344009997</v>
       </c>
       <c r="G70">
-        <v>-0.05452708132461315</v>
+        <v>-0.07190773907055564</v>
       </c>
       <c r="H70">
-        <v>0.03177430370838532</v>
+        <v>-0.00352355451551256</v>
       </c>
       <c r="I70">
-        <v>-0.02437642144830551</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.06226595379218518</v>
+      </c>
+      <c r="J70">
+        <v>0.08767304227321561</v>
+      </c>
+      <c r="K70">
+        <v>-0.151173297243154</v>
+      </c>
+      <c r="L70">
+        <v>-0.2517831127517097</v>
+      </c>
+      <c r="M70">
+        <v>0.2211091302932852</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1082067803994073</v>
+        <v>-0.1362681107368596</v>
       </c>
       <c r="C71">
-        <v>0.280154588142386</v>
+        <v>-0.2822157948304481</v>
       </c>
       <c r="D71">
-        <v>0.02131004023414422</v>
+        <v>-0.006399445702986552</v>
       </c>
       <c r="E71">
-        <v>0.009099781808168025</v>
+        <v>-0.02001209543877826</v>
       </c>
       <c r="F71">
-        <v>0.01766713450102961</v>
+        <v>-0.02720119916844092</v>
       </c>
       <c r="G71">
-        <v>0.03989992879080169</v>
+        <v>0.033576991856005</v>
       </c>
       <c r="H71">
-        <v>0.005121257440377979</v>
+        <v>-0.01376556916011802</v>
       </c>
       <c r="I71">
-        <v>0.02595488526539725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.04725207830680857</v>
+      </c>
+      <c r="J71">
+        <v>0.002439426156144615</v>
+      </c>
+      <c r="K71">
+        <v>-0.01037199783989819</v>
+      </c>
+      <c r="L71">
+        <v>0.003140884205904594</v>
+      </c>
+      <c r="M71">
+        <v>-0.01564921046703668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1854250304103107</v>
+        <v>-0.1447803062436487</v>
       </c>
       <c r="C72">
-        <v>-0.05033800157552488</v>
+        <v>0.0350361982300678</v>
       </c>
       <c r="D72">
-        <v>-0.2156495132642209</v>
+        <v>0.006658012253795334</v>
       </c>
       <c r="E72">
-        <v>-0.02044741475082862</v>
+        <v>0.1814993208476651</v>
       </c>
       <c r="F72">
-        <v>-0.05757783727742361</v>
+        <v>-0.04877167920009813</v>
       </c>
       <c r="G72">
-        <v>-0.05422039173825768</v>
+        <v>0.01152985978155648</v>
       </c>
       <c r="H72">
-        <v>-0.1268214385157838</v>
+        <v>0.05728500017621308</v>
       </c>
       <c r="I72">
-        <v>-0.05640224017636153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.02645843840730353</v>
+      </c>
+      <c r="J72">
+        <v>0.018259275817806</v>
+      </c>
+      <c r="K72">
+        <v>-0.1134917344044601</v>
+      </c>
+      <c r="L72">
+        <v>0.1253898627147131</v>
+      </c>
+      <c r="M72">
+        <v>-0.0303381604355771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2644835836381463</v>
+        <v>-0.2416737366389053</v>
       </c>
       <c r="C73">
-        <v>-0.1854903354106921</v>
+        <v>0.1568832483739989</v>
       </c>
       <c r="D73">
-        <v>0.1431058062829581</v>
+        <v>-0.1678933742184798</v>
       </c>
       <c r="E73">
-        <v>-0.05548287266387254</v>
+        <v>-0.0988825402346518</v>
       </c>
       <c r="F73">
-        <v>0.1941935968548743</v>
+        <v>0.4111762904307874</v>
       </c>
       <c r="G73">
-        <v>-0.0002942897184651728</v>
+        <v>-0.1120217662357458</v>
       </c>
       <c r="H73">
-        <v>-0.212824915101157</v>
+        <v>0.2364440005383455</v>
       </c>
       <c r="I73">
-        <v>0.04885645660436241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.2958656951398054</v>
+      </c>
+      <c r="J73">
+        <v>0.09272379632020798</v>
+      </c>
+      <c r="K73">
+        <v>0.2907250777680707</v>
+      </c>
+      <c r="L73">
+        <v>0.2440672981338864</v>
+      </c>
+      <c r="M73">
+        <v>-0.1293249381792706</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09232211654081569</v>
+        <v>-0.09086482366964002</v>
       </c>
       <c r="C74">
-        <v>-0.03144958161940321</v>
+        <v>0.06947492712236658</v>
       </c>
       <c r="D74">
-        <v>0.02516965383544346</v>
+        <v>-0.01268899711571602</v>
       </c>
       <c r="E74">
-        <v>-0.02781531429770199</v>
+        <v>0.005666479521192948</v>
       </c>
       <c r="F74">
-        <v>-0.1062757492568578</v>
+        <v>0.03332627275753845</v>
       </c>
       <c r="G74">
-        <v>0.1414095040959336</v>
+        <v>0.1485029312069537</v>
       </c>
       <c r="H74">
-        <v>-0.03225114388463025</v>
+        <v>-0.0274247023367578</v>
       </c>
       <c r="I74">
-        <v>-0.01793566996892302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.002535936342393647</v>
+      </c>
+      <c r="J74">
+        <v>0.04051831999464839</v>
+      </c>
+      <c r="K74">
+        <v>-0.01477248623614311</v>
+      </c>
+      <c r="L74">
+        <v>0.04352951304471523</v>
+      </c>
+      <c r="M74">
+        <v>-0.05274327232660819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09960203081234734</v>
+        <v>-0.09074781434428569</v>
       </c>
       <c r="C75">
-        <v>-0.01624865645839033</v>
+        <v>0.04939197675027224</v>
       </c>
       <c r="D75">
-        <v>0.02586111963024587</v>
+        <v>-0.008925769135423455</v>
       </c>
       <c r="E75">
-        <v>-0.03031563389389188</v>
+        <v>0.01107370589158261</v>
       </c>
       <c r="F75">
-        <v>-0.0964375552178437</v>
+        <v>0.01823785788581029</v>
       </c>
       <c r="G75">
-        <v>0.03331407893133835</v>
+        <v>0.1023568406857904</v>
       </c>
       <c r="H75">
-        <v>0.04613227855208771</v>
+        <v>-0.02180678845207638</v>
       </c>
       <c r="I75">
-        <v>-0.115675473796347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1025871824156142</v>
+      </c>
+      <c r="J75">
+        <v>-0.00258942952053498</v>
+      </c>
+      <c r="K75">
+        <v>-0.02566420210086249</v>
+      </c>
+      <c r="L75">
+        <v>0.01705732949084968</v>
+      </c>
+      <c r="M75">
+        <v>0.05765291250500543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1289796893206284</v>
+        <v>-0.09625762661736696</v>
       </c>
       <c r="C76">
-        <v>-0.03365715803008157</v>
+        <v>0.06809081606176681</v>
       </c>
       <c r="D76">
-        <v>0.02323289830304676</v>
+        <v>-0.005074025926447383</v>
       </c>
       <c r="E76">
-        <v>-0.0105440269190073</v>
+        <v>-0.01049645443455374</v>
       </c>
       <c r="F76">
-        <v>-0.2003923224399253</v>
+        <v>0.04839195515299976</v>
       </c>
       <c r="G76">
-        <v>0.1448135661111172</v>
+        <v>0.1948987473211211</v>
       </c>
       <c r="H76">
-        <v>0.02176397001318043</v>
+        <v>-0.05286441648118721</v>
       </c>
       <c r="I76">
-        <v>-0.09446640963500993</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1059085908495074</v>
+      </c>
+      <c r="J76">
+        <v>0.01098606509187056</v>
+      </c>
+      <c r="K76">
+        <v>-0.04990600660273792</v>
+      </c>
+      <c r="L76">
+        <v>0.03756360556567163</v>
+      </c>
+      <c r="M76">
+        <v>-0.1348092651425242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08416597953816639</v>
+        <v>-0.07425543617579163</v>
       </c>
       <c r="C77">
-        <v>-0.03261001314996346</v>
+        <v>0.01733401279273285</v>
       </c>
       <c r="D77">
-        <v>-0.02972188065045994</v>
+        <v>-0.001528625756448669</v>
       </c>
       <c r="E77">
-        <v>0.3593095502162336</v>
+        <v>-0.03738973280958711</v>
       </c>
       <c r="F77">
-        <v>-0.3333878498900668</v>
+        <v>-0.4510478530283247</v>
       </c>
       <c r="G77">
-        <v>-0.7002021674802856</v>
+        <v>-0.1835578489234955</v>
       </c>
       <c r="H77">
-        <v>-0.09881821076881132</v>
+        <v>0.675992240749029</v>
       </c>
       <c r="I77">
-        <v>0.05177187726015673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.271913921842956</v>
+      </c>
+      <c r="J77">
+        <v>0.1774681312003853</v>
+      </c>
+      <c r="K77">
+        <v>0.06168365406164946</v>
+      </c>
+      <c r="L77">
+        <v>0.04311435044017721</v>
+      </c>
+      <c r="M77">
+        <v>-0.1301170365955912</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.136054957060751</v>
+        <v>-0.1689204710835495</v>
       </c>
       <c r="C78">
-        <v>-0.1032401438298804</v>
+        <v>0.1236614621034497</v>
       </c>
       <c r="D78">
-        <v>0.02043436433947704</v>
+        <v>0.173169961251612</v>
       </c>
       <c r="E78">
-        <v>0.1459733493010626</v>
+        <v>-0.1084236827568923</v>
       </c>
       <c r="F78">
-        <v>0.05994928395587741</v>
+        <v>-0.1260196743058256</v>
       </c>
       <c r="G78">
-        <v>0.01805572411790479</v>
+        <v>-0.3021562387233588</v>
       </c>
       <c r="H78">
-        <v>0.07712796984542482</v>
+        <v>-0.2335260324527965</v>
       </c>
       <c r="I78">
-        <v>0.07756717472026391</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.3989376619780708</v>
+      </c>
+      <c r="J78">
+        <v>-0.5802173987149987</v>
+      </c>
+      <c r="K78">
+        <v>0.2265266659383902</v>
+      </c>
+      <c r="L78">
+        <v>0.2147072380802031</v>
+      </c>
+      <c r="M78">
+        <v>-0.08761860313323869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1433583432906116</v>
+        <v>-0.1345842167946079</v>
       </c>
       <c r="C79">
-        <v>-0.05380382159728717</v>
+        <v>0.07427703145628367</v>
       </c>
       <c r="D79">
-        <v>0.03598447280202099</v>
+        <v>-0.005146323235113437</v>
       </c>
       <c r="E79">
-        <v>-0.04991199981488233</v>
+        <v>-0.002905527261011786</v>
       </c>
       <c r="F79">
-        <v>-0.1466772103624104</v>
+        <v>0.0007091663232348715</v>
       </c>
       <c r="G79">
-        <v>0.06185053947614128</v>
+        <v>0.1538291692309117</v>
       </c>
       <c r="H79">
-        <v>0.05444238773140585</v>
+        <v>-0.03349376012835129</v>
       </c>
       <c r="I79">
-        <v>-0.09117824619356985</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.09482874147452984</v>
+      </c>
+      <c r="J79">
+        <v>0.06113148520115567</v>
+      </c>
+      <c r="K79">
+        <v>-0.06902044574369211</v>
+      </c>
+      <c r="L79">
+        <v>0.0439658667934472</v>
+      </c>
+      <c r="M79">
+        <v>-0.01569872524136688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02676790100544171</v>
+        <v>-0.05541078798386862</v>
       </c>
       <c r="C80">
-        <v>0.003295629038972807</v>
+        <v>0.02246569194865352</v>
       </c>
       <c r="D80">
-        <v>0.005641505466076211</v>
+        <v>-0.06269402973408196</v>
       </c>
       <c r="E80">
-        <v>-0.02773878798793537</v>
+        <v>-0.00366443130113836</v>
       </c>
       <c r="F80">
-        <v>0.007839912974551668</v>
+        <v>-0.00903019860299656</v>
       </c>
       <c r="G80">
-        <v>0.002707534627931166</v>
+        <v>-0.02084502020641551</v>
       </c>
       <c r="H80">
-        <v>-0.08632149344023562</v>
+        <v>-0.08651181351928325</v>
       </c>
       <c r="I80">
-        <v>0.01229783211653878</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.1244510808694164</v>
+      </c>
+      <c r="J80">
+        <v>-0.05383432381023493</v>
+      </c>
+      <c r="K80">
+        <v>-0.02883772413280426</v>
+      </c>
+      <c r="L80">
+        <v>-0.07168254331546597</v>
+      </c>
+      <c r="M80">
+        <v>-0.01107592132480474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1135895713275071</v>
+        <v>-0.1189510540357093</v>
       </c>
       <c r="C81">
-        <v>-0.0494081387429005</v>
+        <v>0.0509100098966872</v>
       </c>
       <c r="D81">
-        <v>0.04089109387795092</v>
+        <v>-0.002915039329647273</v>
       </c>
       <c r="E81">
-        <v>-0.04153084812918528</v>
+        <v>-0.005446822728545523</v>
       </c>
       <c r="F81">
-        <v>-0.08631220256850705</v>
+        <v>-0.01196021553633444</v>
       </c>
       <c r="G81">
-        <v>0.04418961451876979</v>
+        <v>0.1381757215058183</v>
       </c>
       <c r="H81">
-        <v>0.01528146609277469</v>
+        <v>-0.06226850067256764</v>
       </c>
       <c r="I81">
-        <v>-0.04098401094250148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.07866682877588495</v>
+      </c>
+      <c r="J81">
+        <v>0.03770724662095273</v>
+      </c>
+      <c r="K81">
+        <v>0.007596069148097111</v>
+      </c>
+      <c r="L81">
+        <v>0.007226590850728395</v>
+      </c>
+      <c r="M81">
+        <v>0.0587682084578381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1098416134248162</v>
+        <v>-0.1183607433676629</v>
       </c>
       <c r="C82">
-        <v>-0.03185680378039717</v>
+        <v>0.05249090979438341</v>
       </c>
       <c r="D82">
-        <v>0.06374233096274737</v>
+        <v>-0.02520644289770557</v>
       </c>
       <c r="E82">
-        <v>-0.09240914052095899</v>
+        <v>0.003494170370259303</v>
       </c>
       <c r="F82">
-        <v>-0.2314769891482563</v>
+        <v>0.03395387052745267</v>
       </c>
       <c r="G82">
-        <v>0.1177017435103745</v>
+        <v>0.2231936613846688</v>
       </c>
       <c r="H82">
-        <v>0.07034023846761894</v>
+        <v>-0.06687110594296722</v>
       </c>
       <c r="I82">
-        <v>-0.06800718530995746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.105999268257379</v>
+      </c>
+      <c r="J82">
+        <v>0.06799784502390928</v>
+      </c>
+      <c r="K82">
+        <v>-0.0267804182880985</v>
+      </c>
+      <c r="L82">
+        <v>-0.04073922082051373</v>
+      </c>
+      <c r="M82">
+        <v>-0.01754956978263077</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05817085585988278</v>
+        <v>-0.07538435044566921</v>
       </c>
       <c r="C83">
-        <v>-0.03629824003981513</v>
+        <v>0.06354537525944491</v>
       </c>
       <c r="D83">
-        <v>0.04162620176327769</v>
+        <v>-0.01223327500830648</v>
       </c>
       <c r="E83">
-        <v>-0.01432437575349037</v>
+        <v>-0.005863716526382912</v>
       </c>
       <c r="F83">
-        <v>0.06602401291401082</v>
+        <v>-0.000398466629065105</v>
       </c>
       <c r="G83">
-        <v>-0.07103356286513184</v>
+        <v>0.02661405279818824</v>
       </c>
       <c r="H83">
-        <v>0.07454711428557036</v>
+        <v>0.04305643123518544</v>
       </c>
       <c r="I83">
-        <v>0.04134543249817799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.05065040757411956</v>
+      </c>
+      <c r="J83">
+        <v>-0.02228971072595459</v>
+      </c>
+      <c r="K83">
+        <v>-0.005779935846893529</v>
+      </c>
+      <c r="L83">
+        <v>-0.1362076113064655</v>
+      </c>
+      <c r="M83">
+        <v>0.04916131045477124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04761763518757476</v>
+        <v>-0.04715962070196757</v>
       </c>
       <c r="C84">
-        <v>-0.03426130144563413</v>
+        <v>-0.02056436032744235</v>
       </c>
       <c r="D84">
-        <v>-0.03337052530232126</v>
+        <v>-0.007561675008403075</v>
       </c>
       <c r="E84">
-        <v>-0.02007438970442732</v>
+        <v>0.01881010278779564</v>
       </c>
       <c r="F84">
-        <v>0.05189832893412489</v>
+        <v>0.002944941276383287</v>
       </c>
       <c r="G84">
-        <v>0.1253442621489795</v>
+        <v>-0.2163788008415819</v>
       </c>
       <c r="H84">
-        <v>0.02581440885333386</v>
+        <v>-0.1882212135916486</v>
       </c>
       <c r="I84">
-        <v>0.03828731952412327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.09089246727954553</v>
+      </c>
+      <c r="J84">
+        <v>0.07513035677930982</v>
+      </c>
+      <c r="K84">
+        <v>0.08669337881802233</v>
+      </c>
+      <c r="L84">
+        <v>-0.188309441495621</v>
+      </c>
+      <c r="M84">
+        <v>-0.5931189319920352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08085305233023236</v>
+        <v>-0.1086593471108545</v>
       </c>
       <c r="C85">
-        <v>-0.04211887977407027</v>
+        <v>0.05192855849571903</v>
       </c>
       <c r="D85">
-        <v>0.05924590756837295</v>
+        <v>-0.01639527845158949</v>
       </c>
       <c r="E85">
-        <v>-0.01619574323319009</v>
+        <v>-0.03236015083230939</v>
       </c>
       <c r="F85">
-        <v>-0.171565373963917</v>
+        <v>-0.003399220693815517</v>
       </c>
       <c r="G85">
-        <v>0.08492211873040879</v>
+        <v>0.1645972478675127</v>
       </c>
       <c r="H85">
-        <v>0.0007374417805393361</v>
+        <v>-0.0436012404823038</v>
       </c>
       <c r="I85">
-        <v>-0.05809836507339835</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.0875384919873904</v>
+      </c>
+      <c r="J85">
+        <v>0.05843739183771056</v>
+      </c>
+      <c r="K85">
+        <v>-0.0543901917637279</v>
+      </c>
+      <c r="L85">
+        <v>0.05701566902388464</v>
+      </c>
+      <c r="M85">
+        <v>-0.006654862288656874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03448006161544793</v>
+        <v>-0.07018161600798613</v>
       </c>
       <c r="C86">
-        <v>-0.04246400751640811</v>
+        <v>0.01991847500178686</v>
       </c>
       <c r="D86">
-        <v>0.002281311565233507</v>
+        <v>0.006601964921970765</v>
       </c>
       <c r="E86">
-        <v>0.03658876638094861</v>
+        <v>-0.09288194302233256</v>
       </c>
       <c r="F86">
-        <v>0.03653122111871472</v>
+        <v>-0.02959069308918027</v>
       </c>
       <c r="G86">
-        <v>-0.05704858656193787</v>
+        <v>-0.4260452505498453</v>
       </c>
       <c r="H86">
-        <v>-0.1262819251753593</v>
+        <v>-0.4259321404954081</v>
       </c>
       <c r="I86">
-        <v>-0.03273331258039373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1810888102231841</v>
+      </c>
+      <c r="J86">
+        <v>0.5832936717465065</v>
+      </c>
+      <c r="K86">
+        <v>0.03309614848621723</v>
+      </c>
+      <c r="L86">
+        <v>0.146927400337814</v>
+      </c>
+      <c r="M86">
+        <v>0.03425192287637226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09194616396935118</v>
+        <v>-0.1095615847601364</v>
       </c>
       <c r="C87">
-        <v>-0.07056301211618883</v>
+        <v>0.06614092195786077</v>
       </c>
       <c r="D87">
-        <v>0.01257993934418566</v>
+        <v>0.03954593754548914</v>
       </c>
       <c r="E87">
-        <v>0.1480666680349742</v>
+        <v>-0.03341736677183406</v>
       </c>
       <c r="F87">
-        <v>-0.06075429285175783</v>
+        <v>-0.1547441344637949</v>
       </c>
       <c r="G87">
-        <v>-0.1450636154334375</v>
+        <v>-0.09632816081225125</v>
       </c>
       <c r="H87">
-        <v>0.001332675125037505</v>
+        <v>0.1465363450051858</v>
       </c>
       <c r="I87">
-        <v>0.08956813097718065</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.01043214652174779</v>
+      </c>
+      <c r="J87">
+        <v>0.06094349823493984</v>
+      </c>
+      <c r="K87">
+        <v>-0.01286144800666029</v>
+      </c>
+      <c r="L87">
+        <v>-0.1175076992564274</v>
+      </c>
+      <c r="M87">
+        <v>-0.04894279118273958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04768126535410324</v>
+        <v>-0.05592890749475148</v>
       </c>
       <c r="C88">
-        <v>-0.04113327218369817</v>
+        <v>0.05273484980916985</v>
       </c>
       <c r="D88">
-        <v>0.01987531218016425</v>
+        <v>-0.02694976738184741</v>
       </c>
       <c r="E88">
-        <v>0.004924461910455259</v>
+        <v>-0.01158394806503325</v>
       </c>
       <c r="F88">
-        <v>0.006321969094820612</v>
+        <v>-0.03372201926866349</v>
       </c>
       <c r="G88">
-        <v>-0.01139828967951629</v>
+        <v>0.03113134849069311</v>
       </c>
       <c r="H88">
-        <v>0.005428895499420054</v>
+        <v>-0.02180362397408189</v>
       </c>
       <c r="I88">
-        <v>0.0419162759882574</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.04406585840277177</v>
+      </c>
+      <c r="J88">
+        <v>0.00666875454859131</v>
+      </c>
+      <c r="K88">
+        <v>0.01959648336827284</v>
+      </c>
+      <c r="L88">
+        <v>-0.01976770384745108</v>
+      </c>
+      <c r="M88">
+        <v>0.03073702034550264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.177466401799244</v>
+        <v>-0.217075101874577</v>
       </c>
       <c r="C89">
-        <v>0.3155712494593406</v>
+        <v>-0.3566252732393176</v>
       </c>
       <c r="D89">
-        <v>0.06024042793491471</v>
+        <v>0.04556525257648377</v>
       </c>
       <c r="E89">
-        <v>0.09671954962777217</v>
+        <v>-0.08159703664335821</v>
       </c>
       <c r="F89">
-        <v>0.03881247191716702</v>
+        <v>-0.01385419406084483</v>
       </c>
       <c r="G89">
-        <v>0.006437722248152737</v>
+        <v>0.007793700034822386</v>
       </c>
       <c r="H89">
-        <v>0.01522674237830866</v>
+        <v>-0.02958520054988797</v>
       </c>
       <c r="I89">
-        <v>-0.0005172893522451191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.02367932404113388</v>
+      </c>
+      <c r="J89">
+        <v>-0.02381926766031385</v>
+      </c>
+      <c r="K89">
+        <v>0.07268296534585318</v>
+      </c>
+      <c r="L89">
+        <v>-0.02723987338533791</v>
+      </c>
+      <c r="M89">
+        <v>0.1035604900661501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1314751579520496</v>
+        <v>-0.1495507047219199</v>
       </c>
       <c r="C90">
-        <v>0.2710658106576953</v>
+        <v>-0.2692693845368856</v>
       </c>
       <c r="D90">
-        <v>-0.003343298522285117</v>
+        <v>-0.005635401800622651</v>
       </c>
       <c r="E90">
-        <v>0.06362639131770396</v>
+        <v>-0.01768902200793531</v>
       </c>
       <c r="F90">
-        <v>0.02155628989590992</v>
+        <v>-0.03091108560310739</v>
       </c>
       <c r="G90">
-        <v>-0.03890731598887154</v>
+        <v>-0.003655043192009778</v>
       </c>
       <c r="H90">
-        <v>-0.01685470970634783</v>
+        <v>0.021131780779906</v>
       </c>
       <c r="I90">
-        <v>0.1240530150518261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.06500157217955402</v>
+      </c>
+      <c r="J90">
+        <v>-0.001073019655640326</v>
+      </c>
+      <c r="K90">
+        <v>0.02648574265710347</v>
+      </c>
+      <c r="L90">
+        <v>0.004203588257563672</v>
+      </c>
+      <c r="M90">
+        <v>-0.03572598465571231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08061373144015768</v>
+        <v>-0.0775900637621291</v>
       </c>
       <c r="C91">
-        <v>-0.02520231828907477</v>
+        <v>0.04965728027819927</v>
       </c>
       <c r="D91">
-        <v>0.0129400892283467</v>
+        <v>0.008899287271915314</v>
       </c>
       <c r="E91">
-        <v>0.01051327102102035</v>
+        <v>-0.009738705307964562</v>
       </c>
       <c r="F91">
-        <v>-0.08032303289129296</v>
+        <v>0.01691294768304321</v>
       </c>
       <c r="G91">
-        <v>0.06913147352366901</v>
+        <v>0.07950694432384216</v>
       </c>
       <c r="H91">
-        <v>0.02447412946328884</v>
+        <v>-0.0247593726882195</v>
       </c>
       <c r="I91">
-        <v>-0.05606897239099866</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.06714024901366131</v>
+      </c>
+      <c r="J91">
+        <v>0.01056376631921294</v>
+      </c>
+      <c r="K91">
+        <v>0.004198944924384318</v>
+      </c>
+      <c r="L91">
+        <v>0.03197558443668314</v>
+      </c>
+      <c r="M91">
+        <v>-0.01475895399707814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1488663143894085</v>
+        <v>-0.1644200776559273</v>
       </c>
       <c r="C92">
-        <v>0.2958426126254686</v>
+        <v>-0.3008903453644249</v>
       </c>
       <c r="D92">
-        <v>0.03865895990970016</v>
+        <v>0.03270364955824647</v>
       </c>
       <c r="E92">
-        <v>0.03038635679017573</v>
+        <v>-0.04527635849975997</v>
       </c>
       <c r="F92">
-        <v>0.05273452919449884</v>
+        <v>-0.01787920583952875</v>
       </c>
       <c r="G92">
-        <v>0.06270898236663644</v>
+        <v>0.03458622626748143</v>
       </c>
       <c r="H92">
-        <v>0.01407153535919097</v>
+        <v>-0.01953775535684838</v>
       </c>
       <c r="I92">
-        <v>-0.003973662780024664</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.01903943427165704</v>
+      </c>
+      <c r="J92">
+        <v>-0.03648634749188891</v>
+      </c>
+      <c r="K92">
+        <v>0.01910019710393847</v>
+      </c>
+      <c r="L92">
+        <v>-0.004406611084485581</v>
+      </c>
+      <c r="M92">
+        <v>0.05273088895314007</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1439035143589862</v>
+        <v>-0.1642945154601093</v>
       </c>
       <c r="C93">
-        <v>0.2447710912204593</v>
+        <v>-0.2871347508153831</v>
       </c>
       <c r="D93">
-        <v>0.01221394842012994</v>
+        <v>-0.02513832902778676</v>
       </c>
       <c r="E93">
-        <v>0.03065330419073044</v>
+        <v>-0.007120422927652893</v>
       </c>
       <c r="F93">
-        <v>0.04053322260579645</v>
+        <v>-0.009530011992360763</v>
       </c>
       <c r="G93">
-        <v>-0.01809923009643187</v>
+        <v>-0.01199140191640631</v>
       </c>
       <c r="H93">
-        <v>-0.0002764118975391176</v>
+        <v>-0.01888740859858489</v>
       </c>
       <c r="I93">
-        <v>0.02975094527373001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.02299086202110488</v>
+      </c>
+      <c r="J93">
+        <v>0.03112273540218751</v>
+      </c>
+      <c r="K93">
+        <v>-0.008052645207511601</v>
+      </c>
+      <c r="L93">
+        <v>-0.02412701508101213</v>
+      </c>
+      <c r="M93">
+        <v>-0.01918900518144611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08675676219510693</v>
+        <v>-0.1059510801560666</v>
       </c>
       <c r="C94">
-        <v>-0.0566561230885529</v>
+        <v>0.07549414068220027</v>
       </c>
       <c r="D94">
-        <v>0.01787106509040239</v>
+        <v>0.01173233727884793</v>
       </c>
       <c r="E94">
-        <v>-0.006542339590447989</v>
+        <v>-0.01500781812498358</v>
       </c>
       <c r="F94">
-        <v>-0.1086339304301537</v>
+        <v>0.03216661052347003</v>
       </c>
       <c r="G94">
-        <v>0.09490172568565158</v>
+        <v>0.1216529831974395</v>
       </c>
       <c r="H94">
-        <v>0.04037214617989061</v>
+        <v>-0.04234197414762558</v>
       </c>
       <c r="I94">
-        <v>-0.1345933648217794</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.05925969134418935</v>
+      </c>
+      <c r="J94">
+        <v>-0.01259939877042888</v>
+      </c>
+      <c r="K94">
+        <v>-0.01494904800754505</v>
+      </c>
+      <c r="L94">
+        <v>0.03747246010016856</v>
+      </c>
+      <c r="M94">
+        <v>0.02917070975627883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1021253040457097</v>
+        <v>-0.130871221537299</v>
       </c>
       <c r="C95">
-        <v>-0.07954624190345845</v>
+        <v>0.06906025935659472</v>
       </c>
       <c r="D95">
-        <v>0.09275576290870753</v>
+        <v>0.01588294915062037</v>
       </c>
       <c r="E95">
-        <v>0.01770556048846589</v>
+        <v>-0.06615560520479048</v>
       </c>
       <c r="F95">
-        <v>0.05079869546867469</v>
+        <v>-0.0698233070601133</v>
       </c>
       <c r="G95">
-        <v>0.01367650823409575</v>
+        <v>-0.1819955153984592</v>
       </c>
       <c r="H95">
-        <v>-0.03904906972106773</v>
+        <v>-0.08090101369904758</v>
       </c>
       <c r="I95">
-        <v>0.03471905656344352</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.1725259151943836</v>
+      </c>
+      <c r="J95">
+        <v>0.1260879211913433</v>
+      </c>
+      <c r="K95">
+        <v>-0.0356787310691148</v>
+      </c>
+      <c r="L95">
+        <v>-0.004347613907883188</v>
+      </c>
+      <c r="M95">
+        <v>0.3066147968041523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2900611587418315</v>
+        <v>-0.1669606400107972</v>
       </c>
       <c r="C97">
-        <v>-0.05478543614068723</v>
+        <v>0.004307559355543398</v>
       </c>
       <c r="D97">
-        <v>-0.8681815017483946</v>
+        <v>0.1175220735547481</v>
       </c>
       <c r="E97">
-        <v>-0.1941365208932874</v>
+        <v>0.9336722317079342</v>
       </c>
       <c r="F97">
-        <v>0.07345916751243489</v>
+        <v>-0.005329548528989183</v>
       </c>
       <c r="G97">
-        <v>-0.03293651786293813</v>
+        <v>-0.1117713993870185</v>
       </c>
       <c r="H97">
-        <v>-0.06978765809121207</v>
+        <v>-0.02987799198041529</v>
       </c>
       <c r="I97">
-        <v>0.03977956063565044</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.01649612482619691</v>
+      </c>
+      <c r="J97">
+        <v>0.009535453623895861</v>
+      </c>
+      <c r="K97">
+        <v>0.06604521835252833</v>
+      </c>
+      <c r="L97">
+        <v>0.009230582365767789</v>
+      </c>
+      <c r="M97">
+        <v>0.03439242047025139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2655425747577564</v>
+        <v>-0.2640918930581672</v>
       </c>
       <c r="C98">
-        <v>-0.08784960815008308</v>
+        <v>0.1182860220135422</v>
       </c>
       <c r="D98">
-        <v>0.174842081824735</v>
+        <v>-0.01484536792954687</v>
       </c>
       <c r="E98">
-        <v>-0.2929793629247435</v>
+        <v>-0.03301436585214002</v>
       </c>
       <c r="F98">
-        <v>0.5021862188305494</v>
+        <v>0.4147765087685453</v>
       </c>
       <c r="G98">
-        <v>-0.1602820517155336</v>
+        <v>-0.2464290692381232</v>
       </c>
       <c r="H98">
-        <v>0.3203201352975647</v>
+        <v>0.1593437422011345</v>
       </c>
       <c r="I98">
-        <v>0.03254335085853128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.2081090083430397</v>
+      </c>
+      <c r="J98">
+        <v>-0.184561520390656</v>
+      </c>
+      <c r="K98">
+        <v>-0.1563243492707655</v>
+      </c>
+      <c r="L98">
+        <v>-0.5806683051765525</v>
+      </c>
+      <c r="M98">
+        <v>0.02424576243042373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.0483305673509119</v>
+        <v>-0.06716128062711096</v>
       </c>
       <c r="C99">
-        <v>-0.02412958371633169</v>
+        <v>0.04590020238171996</v>
       </c>
       <c r="D99">
-        <v>-0.01136973374549351</v>
+        <v>0.01751659899879975</v>
       </c>
       <c r="E99">
-        <v>-0.03756483095980213</v>
+        <v>-0.01382318382910453</v>
       </c>
       <c r="F99">
-        <v>-0.004774876391381855</v>
+        <v>0.01418824908620039</v>
       </c>
       <c r="G99">
-        <v>-0.3165296015020868</v>
+        <v>0.01655103574086533</v>
       </c>
       <c r="H99">
-        <v>0.4612443879165296</v>
+        <v>0.06772785122700238</v>
       </c>
       <c r="I99">
-        <v>-0.628330842242398</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.2438452145261872</v>
+      </c>
+      <c r="J99">
+        <v>0.1011590728720248</v>
+      </c>
+      <c r="K99">
+        <v>0.08123835417941515</v>
+      </c>
+      <c r="L99">
+        <v>-0.0201573718748602</v>
+      </c>
+      <c r="M99">
+        <v>0.4629518351343185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04849362746651611</v>
+        <v>-0.04510129391423953</v>
       </c>
       <c r="C101">
-        <v>-0.01581768011502907</v>
+        <v>0.02294067624540949</v>
       </c>
       <c r="D101">
-        <v>0.01525185356258362</v>
+        <v>0.001063029350472406</v>
       </c>
       <c r="E101">
-        <v>0.02131323014027911</v>
+        <v>-0.02238278865021673</v>
       </c>
       <c r="F101">
-        <v>0.001913791615074026</v>
+        <v>-0.04571377438916448</v>
       </c>
       <c r="G101">
-        <v>0.02174496500236213</v>
+        <v>0.03627313447436251</v>
       </c>
       <c r="H101">
-        <v>-0.03611485519445073</v>
+        <v>-0.05365976221673559</v>
       </c>
       <c r="I101">
-        <v>0.008945708038878439</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.01926949691012402</v>
+      </c>
+      <c r="J101">
+        <v>0.01781446048959483</v>
+      </c>
+      <c r="K101">
+        <v>-0.03983415554159971</v>
+      </c>
+      <c r="L101">
+        <v>-0.03427583992580262</v>
+      </c>
+      <c r="M101">
+        <v>-0.03073954172772978</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
